--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAFB3C3-941D-43EE-926F-773FA0A0CC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B999D9F-6360-4DBE-ACB6-44B026A58CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="150" yWindow="330" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -3814,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}">
   <dimension ref="B2:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F226" sqref="F226"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8132,7 +8132,7 @@
     <brk id="239" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="2" max="1048575" man="1"/>
+    <brk id="3" max="1048575" man="1"/>
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
@@ -8142,7 +8142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}">
   <dimension ref="B2:F70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -9143,7 +9143,7 @@
     <brk id="59" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="2" max="1048575" man="1"/>
+    <brk id="3" max="1048575" man="1"/>
     <brk id="5" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B999D9F-6360-4DBE-ACB6-44B026A58CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC23E6-8CF3-40B9-8C01-E71F2280AC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="330" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -2265,164 +2265,82 @@
     <t>포격</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_01</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>전투의 함성</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_02</t>
-  </si>
-  <si>
     <t>크게 한방</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_03</t>
-  </si>
-  <si>
     <t>강화탄 발사</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_04</t>
-  </si>
-  <si>
     <t>회오리치기</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_05</t>
-  </si>
-  <si>
     <t>강령술</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_06</t>
-  </si>
-  <si>
     <t>빛 폭파</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_07</t>
-  </si>
-  <si>
     <t>약점공격</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_08</t>
-  </si>
-  <si>
     <t>화염포</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_09</t>
-  </si>
-  <si>
     <t>사자후</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_10</t>
-  </si>
-  <si>
     <t>전장의 지휘자</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_11</t>
-  </si>
-  <si>
     <t>공포의 망치</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_12</t>
-  </si>
-  <si>
     <t>번개 폭풍</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_13</t>
-  </si>
-  <si>
     <t>심판</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_14</t>
-  </si>
-  <si>
     <t>연속베기</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_15</t>
-  </si>
-  <si>
     <t>그림자 관통</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_16</t>
-  </si>
-  <si>
     <t>지진</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_17</t>
-  </si>
-  <si>
     <t>화산 폭발</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_18</t>
-  </si>
-  <si>
     <t>초음파</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_19</t>
-  </si>
-  <si>
     <t>몸통박치기</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_20</t>
-  </si>
-  <si>
     <t>승룡권</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_21</t>
-  </si>
-  <si>
     <t>암흑 전이</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_22</t>
-  </si>
-  <si>
     <t>소드 레인</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_23</t>
-  </si>
-  <si>
     <t>에너지 방출</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_24</t>
-  </si>
-  <si>
     <t>드래곤 브레스</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_25</t>
-  </si>
-  <si>
     <t>강화 주문</t>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_26</t>
-  </si>
-  <si>
     <t>칼날 돌풍</t>
-  </si>
-  <si>
-    <t>Skill/Icon/SkillIcon_27</t>
   </si>
   <si>
     <r>
@@ -2476,9 +2394,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_28</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2530,9 +2445,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_29</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2565,9 +2477,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_30</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2619,9 +2528,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_31</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2654,9 +2560,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_32</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2689,111 +2592,55 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Skill/Icon/SkillIcon_33</t>
-  </si>
-  <si>
     <t>거인 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_01</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>난쟁이 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_02</t>
-  </si>
-  <si>
     <t>불정령 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_03</t>
-  </si>
-  <si>
     <t>마수 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_04</t>
-  </si>
-  <si>
     <t>유령 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_05</t>
-  </si>
-  <si>
     <t>골렘 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_06</t>
-  </si>
-  <si>
     <t>야수 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_07</t>
-  </si>
-  <si>
     <t>마인 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_08</t>
-  </si>
-  <si>
     <t>드래곤 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_09</t>
-  </si>
-  <si>
     <t>흑요정 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/1Synergy_10</t>
-  </si>
-  <si>
     <t>사냥꾼 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/2Synergy_01</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>흑마법사 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/2Synergy_02</t>
-  </si>
-  <si>
     <t>광전사 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/2Synergy_03</t>
-  </si>
-  <si>
     <t>암살자 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/2Synergy_04</t>
-  </si>
-  <si>
     <t>주술사 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/2Synergy_05</t>
-  </si>
-  <si>
     <t>가디언 시너지 아이콘</t>
   </si>
   <si>
-    <t>Synergy/Icon/2Synergy_06</t>
-  </si>
-  <si>
     <t>군단장 시너지 아이콘</t>
-  </si>
-  <si>
-    <t>Synergy/Icon/2Synergy_07</t>
   </si>
   <si>
     <r>
@@ -2847,10 +2694,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Stage/Icon/fight_eq_icon_r</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2902,10 +2745,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Stage/Icon/chest_eq_icon_r</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2957,10 +2796,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Stage/Icon/Helm_eq_icon_r</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>중간 보스</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -3016,10 +2851,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Stage/Icon/Helm2_eq_icon_r</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>일반 보스</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -3050,6 +2881,168 @@
   <si>
     <t>Skill/Projectile_15</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_01</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_02</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_03</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_04</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_05</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_06</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_07</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_08</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_09</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_10</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_11</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_12</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_13</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_14</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_15</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_16</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_17</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_18</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_19</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_20</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_21</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_22</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_23</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_24</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_25</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_26</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_27</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_28</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_29</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_30</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_31</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_32</t>
+  </si>
+  <si>
+    <t>Icon/Skill/SkillIcon_33</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_01</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_02</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_03</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_04</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_05</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_06</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_07</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_08</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_09</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/1Synergy_10</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/2Synergy_01</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/2Synergy_02</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/2Synergy_03</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/2Synergy_04</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/2Synergy_05</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/2Synergy_06</t>
+  </si>
+  <si>
+    <t>Icon/Synergy/2Synergy_07</t>
+  </si>
+  <si>
+    <t>Icon/Stage/chest_eq_icon_r</t>
+  </si>
+  <si>
+    <t>Icon/Stage/fight_eq_icon_r</t>
+  </si>
+  <si>
+    <t>Icon/Stage/Helm_eq_icon_r</t>
+  </si>
+  <si>
+    <t>Icon/Stage/Helm2_eq_icon_r</t>
   </si>
 </sst>
 </file>
@@ -5713,7 +5706,7 @@
         <v>0.7</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="G106" s="12"/>
     </row>
@@ -6001,7 +5994,7 @@
         <v>0.7</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="G122" s="12"/>
     </row>
@@ -6055,7 +6048,7 @@
         <v>1.2</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="G125" s="12"/>
     </row>
@@ -6181,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="G132" s="12"/>
     </row>
@@ -6235,7 +6228,7 @@
         <v>1.5</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="G135" s="12"/>
     </row>
@@ -6325,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="G140" s="12"/>
     </row>
@@ -6415,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="G145" s="12"/>
     </row>
@@ -6667,7 +6660,7 @@
         <v>0.7</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -7063,7 +7056,7 @@
         <v>0.7</v>
       </c>
       <c r="F181" s="17" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
       <c r="G181" s="12"/>
     </row>
@@ -7117,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
       <c r="G184" s="12"/>
     </row>
@@ -7243,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="G191" s="12"/>
     </row>
@@ -7315,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="G195" s="12"/>
     </row>
@@ -8142,8 +8135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}">
   <dimension ref="B2:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8225,7 +8218,7 @@
         <v>910001</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -8234,13 +8227,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D7" s="37">
         <v>910002</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -8249,13 +8242,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D8" s="37">
         <v>910003</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -8264,13 +8257,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D9" s="37">
         <v>910004</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -8279,13 +8272,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D10" s="37">
         <v>910005</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -8294,13 +8287,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D11" s="37">
         <v>910006</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -8309,13 +8302,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D12" s="37">
         <v>910007</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -8324,13 +8317,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D13" s="37">
         <v>910008</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -8339,13 +8332,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D14" s="37">
         <v>910009</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="F14" s="12"/>
     </row>
@@ -8354,13 +8347,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D15" s="37">
         <v>910010</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -8369,13 +8362,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D16" s="37">
         <v>910011</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -8384,13 +8377,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D17" s="37">
         <v>910012</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -8399,13 +8392,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D18" s="37">
         <v>910013</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -8414,13 +8407,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D19" s="37">
         <v>910014</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -8429,13 +8422,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D20" s="37">
         <v>910015</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -8444,13 +8437,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D21" s="37">
         <v>910016</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -8459,13 +8452,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D22" s="37">
         <v>910017</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F22" s="12"/>
     </row>
@@ -8474,13 +8467,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D23" s="37">
         <v>910018</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -8489,13 +8482,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D24" s="37">
         <v>910019</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="F24" s="12"/>
     </row>
@@ -8504,13 +8497,13 @@
         <v>20</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D25" s="37">
         <v>910020</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="F25" s="12"/>
     </row>
@@ -8519,13 +8512,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D26" s="37">
         <v>910021</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -8534,13 +8527,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="D27" s="37">
         <v>910022</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="F27" s="12"/>
     </row>
@@ -8549,13 +8542,13 @@
         <v>23</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="D28" s="37">
         <v>910023</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="F28" s="12"/>
     </row>
@@ -8564,13 +8557,13 @@
         <v>24</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D29" s="37">
         <v>910024</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="F29" s="12"/>
     </row>
@@ -8579,13 +8572,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="D30" s="37">
         <v>910025</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="F30" s="12"/>
     </row>
@@ -8594,13 +8587,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D31" s="37">
         <v>910026</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="F31" s="12"/>
     </row>
@@ -8609,13 +8602,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="D32" s="37">
         <v>910027</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="F32" s="12"/>
     </row>
@@ -8624,13 +8617,13 @@
         <v>28</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="D33" s="37">
         <v>910028</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="F33" s="12"/>
     </row>
@@ -8639,13 +8632,13 @@
         <v>29</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="D34" s="37">
         <v>910029</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="F34" s="12"/>
     </row>
@@ -8654,13 +8647,13 @@
         <v>30</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="D35" s="37">
         <v>910030</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="F35" s="12"/>
     </row>
@@ -8669,13 +8662,13 @@
         <v>31</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="D36" s="37">
         <v>910031</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="F36" s="12"/>
     </row>
@@ -8684,13 +8677,13 @@
         <v>32</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="D37" s="37">
         <v>910032</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="F37" s="12"/>
     </row>
@@ -8699,13 +8692,13 @@
         <v>33</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D38" s="37">
         <v>910033</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="F38" s="12"/>
     </row>
@@ -8714,13 +8707,13 @@
         <v>34</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="D39" s="29">
         <v>910034</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -8729,13 +8722,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="D40" s="29">
         <v>910035</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="F40" s="12"/>
     </row>
@@ -8744,13 +8737,13 @@
         <v>36</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="D41" s="29">
         <v>910036</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="F41" s="12"/>
     </row>
@@ -8759,13 +8752,13 @@
         <v>37</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="D42" s="29">
         <v>910037</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="F42" s="12"/>
     </row>
@@ -8774,13 +8767,13 @@
         <v>38</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="D43" s="29">
         <v>910038</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="F43" s="12"/>
     </row>
@@ -8789,13 +8782,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="D44" s="29">
         <v>910039</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="F44" s="12"/>
     </row>
@@ -8804,13 +8797,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="D45" s="29">
         <v>910040</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="F45" s="12"/>
     </row>
@@ -8819,13 +8812,13 @@
         <v>41</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="D46" s="29">
         <v>910041</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="F46" s="12"/>
     </row>
@@ -8834,13 +8827,13 @@
         <v>42</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="D47" s="29">
         <v>910042</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="F47" s="12"/>
     </row>
@@ -8849,13 +8842,13 @@
         <v>43</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="D48" s="29">
         <v>910043</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="F48" s="12"/>
     </row>
@@ -8864,13 +8857,13 @@
         <v>44</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="D49" s="29">
         <v>910044</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F49" s="12"/>
     </row>
@@ -8879,13 +8872,13 @@
         <v>45</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="D50" s="29">
         <v>910045</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="F50" s="12"/>
     </row>
@@ -8894,13 +8887,13 @@
         <v>46</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="D51" s="29">
         <v>910046</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="F51" s="12"/>
     </row>
@@ -8909,13 +8902,13 @@
         <v>47</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="D52" s="29">
         <v>910047</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="F52" s="12"/>
     </row>
@@ -8924,13 +8917,13 @@
         <v>48</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="D53" s="29">
         <v>910048</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="F53" s="12"/>
     </row>
@@ -8939,13 +8932,13 @@
         <v>49</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="D54" s="29">
         <v>910049</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="F54" s="12"/>
     </row>
@@ -8954,13 +8947,13 @@
         <v>50</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="D55" s="29">
         <v>910050</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="F55" s="12"/>
     </row>
@@ -8969,13 +8962,13 @@
         <v>51</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="D56" s="17">
         <v>910051</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F56" s="12"/>
     </row>
@@ -8984,13 +8977,13 @@
         <v>52</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="D57" s="17">
         <v>910052</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="F57" s="12"/>
     </row>
@@ -8999,16 +8992,16 @@
         <v>53</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="D58" s="17">
         <v>910053</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -9016,16 +9009,16 @@
         <v>54</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="D59" s="17">
         <v>910054</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="2:6">

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC23E6-8CF3-40B9-8C01-E71F2280AC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46553856-6EA7-433A-B563-1D5EE0BC8C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
     <sheet name="Icon_Table" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prefab_Table!$B$5:$G$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prefab_Table!$B$5:$G$240</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="507">
   <si>
     <t>번호</t>
   </si>
@@ -3043,6 +3043,16 @@
   </si>
   <si>
     <t>Icon/Stage/Helm2_eq_icon_r</t>
+  </si>
+  <si>
+    <t>투명 투사체</t>
+  </si>
+  <si>
+    <t>투사체 이펙트에서만 사용</t>
+  </si>
+  <si>
+    <t>Skill/Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3805,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}">
-  <dimension ref="B2:G240"/>
+  <dimension ref="B2:G241"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5679,34 +5689,36 @@
         <v>100</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>162</v>
+        <v>504</v>
       </c>
       <c r="D105" s="17">
-        <v>900100</v>
+        <v>900000</v>
       </c>
       <c r="E105" s="18">
         <v>1</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G105" s="12"/>
+        <v>506</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="7">
         <v>101</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D106" s="17">
-        <v>900101</v>
+        <v>900100</v>
       </c>
       <c r="E106" s="18">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>443</v>
+        <v>163</v>
       </c>
       <c r="G106" s="12"/>
     </row>
@@ -5715,16 +5727,16 @@
         <v>102</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="17">
-        <v>900102</v>
+        <v>900101</v>
       </c>
       <c r="E107" s="18">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="G107" s="12"/>
     </row>
@@ -5733,16 +5745,16 @@
         <v>103</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D108" s="17">
-        <v>900103</v>
+        <v>900102</v>
       </c>
       <c r="E108" s="18">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G108" s="12"/>
     </row>
@@ -5751,16 +5763,16 @@
         <v>104</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D109" s="17">
-        <v>900104</v>
+        <v>900103</v>
       </c>
       <c r="E109" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G109" s="12"/>
     </row>
@@ -5769,16 +5781,16 @@
         <v>105</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D110" s="17">
-        <v>900105</v>
+        <v>900104</v>
       </c>
       <c r="E110" s="18">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G110" s="12"/>
     </row>
@@ -5787,16 +5799,16 @@
         <v>106</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D111" s="17">
-        <v>900106</v>
+        <v>900105</v>
       </c>
       <c r="E111" s="18">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G111" s="12"/>
     </row>
@@ -5805,16 +5817,16 @@
         <v>107</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D112" s="17">
-        <v>900107</v>
+        <v>900106</v>
       </c>
       <c r="E112" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G112" s="12"/>
     </row>
@@ -5823,16 +5835,16 @@
         <v>108</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D113" s="17">
-        <v>900108</v>
+        <v>900107</v>
       </c>
       <c r="E113" s="18">
         <v>1</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G113" s="12"/>
     </row>
@@ -5841,16 +5853,16 @@
         <v>109</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D114" s="17">
-        <v>900109</v>
+        <v>900108</v>
       </c>
       <c r="E114" s="18">
         <v>1</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G114" s="12"/>
     </row>
@@ -5859,16 +5871,16 @@
         <v>110</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D115" s="17">
-        <v>900110</v>
+        <v>900109</v>
       </c>
       <c r="E115" s="18">
         <v>1</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G115" s="12"/>
     </row>
@@ -5877,16 +5889,16 @@
         <v>111</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D116" s="17">
-        <v>900111</v>
+        <v>900110</v>
       </c>
       <c r="E116" s="18">
         <v>1</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G116" s="12"/>
     </row>
@@ -5895,16 +5907,16 @@
         <v>112</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D117" s="17">
-        <v>900112</v>
+        <v>900111</v>
       </c>
       <c r="E117" s="18">
         <v>1</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G117" s="12"/>
     </row>
@@ -5913,16 +5925,16 @@
         <v>113</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D118" s="17">
-        <v>900113</v>
+        <v>900112</v>
       </c>
       <c r="E118" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G118" s="12"/>
     </row>
@@ -5931,16 +5943,16 @@
         <v>114</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D119" s="17">
-        <v>900114</v>
+        <v>900113</v>
       </c>
       <c r="E119" s="18">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G119" s="12"/>
     </row>
@@ -5949,16 +5961,16 @@
         <v>115</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D120" s="17">
-        <v>900115</v>
+        <v>900114</v>
       </c>
       <c r="E120" s="18">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G120" s="12"/>
     </row>
@@ -5967,16 +5979,16 @@
         <v>116</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D121" s="17">
-        <v>900116</v>
+        <v>900115</v>
       </c>
       <c r="E121" s="18">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G121" s="12"/>
     </row>
@@ -5985,16 +5997,16 @@
         <v>117</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D122" s="17">
-        <v>900117</v>
+        <v>900116</v>
       </c>
       <c r="E122" s="18">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="G122" s="12"/>
     </row>
@@ -6003,16 +6015,16 @@
         <v>118</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D123" s="17">
-        <v>900118</v>
+        <v>900117</v>
       </c>
       <c r="E123" s="18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>197</v>
+        <v>444</v>
       </c>
       <c r="G123" s="12"/>
     </row>
@@ -6021,16 +6033,16 @@
         <v>119</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D124" s="17">
-        <v>900119</v>
+        <v>900118</v>
       </c>
       <c r="E124" s="18">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G124" s="12"/>
     </row>
@@ -6039,16 +6051,16 @@
         <v>120</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D125" s="17">
-        <v>900120</v>
+        <v>900119</v>
       </c>
       <c r="E125" s="18">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="G125" s="12"/>
     </row>
@@ -6057,16 +6069,16 @@
         <v>121</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D126" s="17">
-        <v>900121</v>
+        <v>900120</v>
       </c>
       <c r="E126" s="18">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>201</v>
+        <v>444</v>
       </c>
       <c r="G126" s="12"/>
     </row>
@@ -6075,16 +6087,16 @@
         <v>122</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D127" s="17">
-        <v>900122</v>
+        <v>900121</v>
       </c>
       <c r="E127" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G127" s="12"/>
     </row>
@@ -6093,16 +6105,16 @@
         <v>123</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D128" s="17">
-        <v>900123</v>
+        <v>900122</v>
       </c>
       <c r="E128" s="18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G128" s="12"/>
     </row>
@@ -6111,16 +6123,16 @@
         <v>124</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D129" s="17">
-        <v>900124</v>
+        <v>900123</v>
       </c>
       <c r="E129" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G129" s="12"/>
     </row>
@@ -6129,16 +6141,16 @@
         <v>125</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D130" s="17">
-        <v>900125</v>
+        <v>900124</v>
       </c>
       <c r="E130" s="18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G130" s="12"/>
     </row>
@@ -6147,16 +6159,16 @@
         <v>126</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D131" s="17">
-        <v>900126</v>
+        <v>900125</v>
       </c>
       <c r="E131" s="18">
         <v>1</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G131" s="12"/>
     </row>
@@ -6165,16 +6177,16 @@
         <v>127</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D132" s="17">
-        <v>900127</v>
+        <v>900126</v>
       </c>
       <c r="E132" s="18">
         <v>1</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>445</v>
+        <v>194</v>
       </c>
       <c r="G132" s="12"/>
     </row>
@@ -6183,16 +6195,16 @@
         <v>128</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D133" s="17">
-        <v>900128</v>
+        <v>900127</v>
       </c>
       <c r="E133" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>212</v>
+        <v>445</v>
       </c>
       <c r="G133" s="12"/>
     </row>
@@ -6201,16 +6213,16 @@
         <v>129</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D134" s="17">
-        <v>900129</v>
+        <v>900128</v>
       </c>
       <c r="E134" s="18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G134" s="12"/>
     </row>
@@ -6219,16 +6231,16 @@
         <v>130</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D135" s="17">
-        <v>900130</v>
+        <v>900129</v>
       </c>
       <c r="E135" s="18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>445</v>
+        <v>194</v>
       </c>
       <c r="G135" s="12"/>
     </row>
@@ -6237,16 +6249,16 @@
         <v>131</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D136" s="17">
-        <v>900131</v>
+        <v>900130</v>
       </c>
       <c r="E136" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
       <c r="G136" s="12"/>
     </row>
@@ -6255,16 +6267,16 @@
         <v>132</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D137" s="17">
-        <v>900132</v>
+        <v>900131</v>
       </c>
       <c r="E137" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G137" s="12"/>
     </row>
@@ -6273,16 +6285,16 @@
         <v>133</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D138" s="17">
-        <v>900133</v>
+        <v>900132</v>
       </c>
       <c r="E138" s="18">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G138" s="12"/>
     </row>
@@ -6291,16 +6303,16 @@
         <v>134</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D139" s="17">
-        <v>900134</v>
+        <v>900133</v>
       </c>
       <c r="E139" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -6309,16 +6321,16 @@
         <v>135</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D140" s="17">
-        <v>900135</v>
+        <v>900134</v>
       </c>
       <c r="E140" s="18">
         <v>1</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>446</v>
+        <v>220</v>
       </c>
       <c r="G140" s="12"/>
     </row>
@@ -6327,16 +6339,16 @@
         <v>136</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D141" s="17">
-        <v>900136</v>
+        <v>900135</v>
       </c>
       <c r="E141" s="18">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="G141" s="12"/>
     </row>
@@ -6345,16 +6357,16 @@
         <v>137</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D142" s="17">
-        <v>900137</v>
+        <v>900136</v>
       </c>
       <c r="E142" s="18">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G142" s="12"/>
     </row>
@@ -6363,16 +6375,16 @@
         <v>138</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D143" s="17">
-        <v>900138</v>
+        <v>900137</v>
       </c>
       <c r="E143" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -6381,16 +6393,16 @@
         <v>139</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D144" s="17">
-        <v>900139</v>
+        <v>900138</v>
       </c>
       <c r="E144" s="18">
         <v>1</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G144" s="12"/>
     </row>
@@ -6399,16 +6411,16 @@
         <v>140</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D145" s="17">
-        <v>900140</v>
+        <v>900139</v>
       </c>
       <c r="E145" s="18">
         <v>1</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>447</v>
+        <v>229</v>
       </c>
       <c r="G145" s="12"/>
     </row>
@@ -6417,16 +6429,16 @@
         <v>141</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D146" s="17">
-        <v>900141</v>
+        <v>900140</v>
       </c>
       <c r="E146" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>232</v>
+        <v>447</v>
       </c>
       <c r="G146" s="12"/>
     </row>
@@ -6435,16 +6447,16 @@
         <v>142</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D147" s="17">
-        <v>900142</v>
+        <v>900141</v>
       </c>
       <c r="E147" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -6453,16 +6465,16 @@
         <v>143</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D148" s="17">
-        <v>900143</v>
+        <v>900142</v>
       </c>
       <c r="E148" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G148" s="12"/>
     </row>
@@ -6471,16 +6483,16 @@
         <v>144</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D149" s="17">
-        <v>900144</v>
+        <v>900143</v>
       </c>
       <c r="E149" s="18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G149" s="12"/>
     </row>
@@ -6489,16 +6501,16 @@
         <v>145</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D150" s="17">
-        <v>900145</v>
+        <v>900144</v>
       </c>
       <c r="E150" s="18">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G150" s="12"/>
     </row>
@@ -6507,16 +6519,16 @@
         <v>146</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D151" s="17">
-        <v>900146</v>
+        <v>900145</v>
       </c>
       <c r="E151" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G151" s="12"/>
     </row>
@@ -6525,16 +6537,16 @@
         <v>147</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D152" s="17">
-        <v>900147</v>
+        <v>900146</v>
       </c>
       <c r="E152" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G152" s="12"/>
     </row>
@@ -6543,16 +6555,16 @@
         <v>148</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D153" s="17">
-        <v>900148</v>
+        <v>900147</v>
       </c>
       <c r="E153" s="18">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="G153" s="12"/>
     </row>
@@ -6561,16 +6573,16 @@
         <v>149</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D154" s="17">
-        <v>900149</v>
+        <v>900148</v>
       </c>
       <c r="E154" s="18">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="G154" s="12"/>
     </row>
@@ -6579,16 +6591,16 @@
         <v>150</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D155" s="17">
-        <v>900150</v>
+        <v>900149</v>
       </c>
       <c r="E155" s="18">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -6597,16 +6609,16 @@
         <v>151</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D156" s="17">
-        <v>900151</v>
+        <v>900150</v>
       </c>
       <c r="E156" s="18">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="G156" s="12"/>
     </row>
@@ -6615,16 +6627,16 @@
         <v>152</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D157" s="17">
-        <v>900152</v>
+        <v>900151</v>
       </c>
       <c r="E157" s="18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="G157" s="12"/>
     </row>
@@ -6633,16 +6645,16 @@
         <v>153</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D158" s="17">
-        <v>900153</v>
+        <v>900152</v>
       </c>
       <c r="E158" s="18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G158" s="12"/>
     </row>
@@ -6651,16 +6663,16 @@
         <v>154</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D159" s="17">
-        <v>900154</v>
+        <v>900153</v>
       </c>
       <c r="E159" s="18">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -6669,16 +6681,16 @@
         <v>155</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D160" s="17">
-        <v>900155</v>
+        <v>900154</v>
       </c>
       <c r="E160" s="18">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="G160" s="12"/>
     </row>
@@ -6687,16 +6699,16 @@
         <v>156</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D161" s="17">
-        <v>900156</v>
+        <v>900155</v>
       </c>
       <c r="E161" s="18">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G161" s="12"/>
     </row>
@@ -6705,16 +6717,16 @@
         <v>157</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D162" s="17">
-        <v>900157</v>
+        <v>900156</v>
       </c>
       <c r="E162" s="18">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G162" s="12"/>
     </row>
@@ -6723,16 +6735,16 @@
         <v>158</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D163" s="17">
-        <v>900158</v>
+        <v>900157</v>
       </c>
       <c r="E163" s="18">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G163" s="12"/>
     </row>
@@ -6741,16 +6753,16 @@
         <v>159</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D164" s="17">
-        <v>900159</v>
+        <v>900158</v>
       </c>
       <c r="E164" s="18">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="G164" s="12"/>
     </row>
@@ -6759,16 +6771,16 @@
         <v>160</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D165" s="17">
-        <v>900160</v>
+        <v>900159</v>
       </c>
       <c r="E165" s="18">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G165" s="12"/>
     </row>
@@ -6777,16 +6789,16 @@
         <v>161</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D166" s="17">
-        <v>900161</v>
+        <v>900160</v>
       </c>
       <c r="E166" s="18">
         <v>1</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G166" s="12"/>
     </row>
@@ -6795,16 +6807,16 @@
         <v>162</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D167" s="17">
-        <v>900162</v>
+        <v>900161</v>
       </c>
       <c r="E167" s="18">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F167" s="17" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G167" s="12"/>
     </row>
@@ -6813,16 +6825,16 @@
         <v>163</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D168" s="17">
-        <v>900163</v>
+        <v>900162</v>
       </c>
       <c r="E168" s="18">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="G168" s="12"/>
     </row>
@@ -6831,16 +6843,16 @@
         <v>164</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D169" s="17">
-        <v>900164</v>
+        <v>900163</v>
       </c>
       <c r="E169" s="18">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="G169" s="12"/>
     </row>
@@ -6849,16 +6861,16 @@
         <v>165</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D170" s="17">
-        <v>900165</v>
+        <v>900164</v>
       </c>
       <c r="E170" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F170" s="17" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G170" s="12"/>
     </row>
@@ -6867,16 +6879,16 @@
         <v>166</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D171" s="17">
-        <v>900166</v>
+        <v>900165</v>
       </c>
       <c r="E171" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="G171" s="12"/>
     </row>
@@ -6885,16 +6897,16 @@
         <v>167</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D172" s="17">
-        <v>900167</v>
+        <v>900166</v>
       </c>
       <c r="E172" s="18">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F172" s="17" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="G172" s="12"/>
     </row>
@@ -6903,16 +6915,16 @@
         <v>168</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D173" s="17">
-        <v>900168</v>
+        <v>900167</v>
       </c>
       <c r="E173" s="18">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F173" s="17" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="G173" s="12"/>
     </row>
@@ -6921,16 +6933,16 @@
         <v>169</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D174" s="17">
-        <v>900169</v>
+        <v>900168</v>
       </c>
       <c r="E174" s="18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="G174" s="12"/>
     </row>
@@ -6939,16 +6951,16 @@
         <v>170</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D175" s="17">
-        <v>900170</v>
+        <v>900169</v>
       </c>
       <c r="E175" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F175" s="17" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="G175" s="12"/>
     </row>
@@ -6957,16 +6969,16 @@
         <v>171</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D176" s="17">
-        <v>900171</v>
+        <v>900170</v>
       </c>
       <c r="E176" s="18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="G176" s="12"/>
     </row>
@@ -6975,16 +6987,16 @@
         <v>172</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D177" s="17">
-        <v>900172</v>
+        <v>900171</v>
       </c>
       <c r="E177" s="18">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="G177" s="12"/>
     </row>
@@ -6993,16 +7005,16 @@
         <v>173</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D178" s="17">
-        <v>900173</v>
+        <v>900172</v>
       </c>
       <c r="E178" s="18">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F178" s="17" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="G178" s="12"/>
     </row>
@@ -7011,16 +7023,16 @@
         <v>174</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D179" s="17">
-        <v>900174</v>
+        <v>900173</v>
       </c>
       <c r="E179" s="18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F179" s="17" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="G179" s="12"/>
     </row>
@@ -7029,16 +7041,16 @@
         <v>175</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D180" s="17">
-        <v>900175</v>
+        <v>900174</v>
       </c>
       <c r="E180" s="18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F180" s="17" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="G180" s="12"/>
     </row>
@@ -7047,16 +7059,16 @@
         <v>176</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D181" s="17">
-        <v>900176</v>
+        <v>900175</v>
       </c>
       <c r="E181" s="18">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="F181" s="17" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="G181" s="12"/>
     </row>
@@ -7065,16 +7077,16 @@
         <v>177</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D182" s="17">
-        <v>900177</v>
+        <v>900176</v>
       </c>
       <c r="E182" s="18">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F182" s="17" t="s">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="G182" s="12"/>
     </row>
@@ -7083,16 +7095,16 @@
         <v>178</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D183" s="17">
-        <v>900178</v>
+        <v>900177</v>
       </c>
       <c r="E183" s="18">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F183" s="17" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G183" s="12"/>
     </row>
@@ -7101,16 +7113,16 @@
         <v>179</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D184" s="17">
-        <v>900179</v>
+        <v>900178</v>
       </c>
       <c r="E184" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="G184" s="12"/>
     </row>
@@ -7119,16 +7131,16 @@
         <v>180</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D185" s="17">
-        <v>900180</v>
+        <v>900179</v>
       </c>
       <c r="E185" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="G185" s="12"/>
     </row>
@@ -7137,16 +7149,16 @@
         <v>181</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D186" s="17">
-        <v>900181</v>
+        <v>900180</v>
       </c>
       <c r="E186" s="18">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F186" s="17" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="G186" s="12"/>
     </row>
@@ -7155,16 +7167,16 @@
         <v>182</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D187" s="17">
-        <v>900182</v>
+        <v>900181</v>
       </c>
       <c r="E187" s="18">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G187" s="12"/>
     </row>
@@ -7173,16 +7185,16 @@
         <v>183</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D188" s="17">
-        <v>900183</v>
+        <v>900182</v>
       </c>
       <c r="E188" s="18">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G188" s="12"/>
     </row>
@@ -7191,16 +7203,16 @@
         <v>184</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D189" s="17">
-        <v>900184</v>
+        <v>900183</v>
       </c>
       <c r="E189" s="18">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="F189" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G189" s="12"/>
     </row>
@@ -7209,16 +7221,16 @@
         <v>185</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D190" s="17">
-        <v>900185</v>
+        <v>900184</v>
       </c>
       <c r="E190" s="18">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G190" s="12"/>
     </row>
@@ -7227,16 +7239,16 @@
         <v>186</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D191" s="17">
-        <v>900186</v>
+        <v>900185</v>
       </c>
       <c r="E191" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>449</v>
+        <v>299</v>
       </c>
       <c r="G191" s="12"/>
     </row>
@@ -7245,16 +7257,16 @@
         <v>187</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D192" s="17">
-        <v>900187</v>
+        <v>900186</v>
       </c>
       <c r="E192" s="18">
         <v>1</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="G192" s="12"/>
     </row>
@@ -7263,16 +7275,16 @@
         <v>188</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D193" s="17">
-        <v>900188</v>
+        <v>900187</v>
       </c>
       <c r="E193" s="18">
         <v>1</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="G193" s="12"/>
     </row>
@@ -7281,16 +7293,16 @@
         <v>189</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D194" s="17">
-        <v>900189</v>
+        <v>900188</v>
       </c>
       <c r="E194" s="18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G194" s="12"/>
     </row>
@@ -7299,16 +7311,16 @@
         <v>190</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D195" s="17">
-        <v>900190</v>
+        <v>900189</v>
       </c>
       <c r="E195" s="18">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>446</v>
+        <v>305</v>
       </c>
       <c r="G195" s="12"/>
     </row>
@@ -7317,16 +7329,16 @@
         <v>191</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D196" s="17">
-        <v>900191</v>
+        <v>900190</v>
       </c>
       <c r="E196" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>308</v>
+        <v>446</v>
       </c>
       <c r="G196" s="12"/>
     </row>
@@ -7335,16 +7347,16 @@
         <v>192</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D197" s="17">
-        <v>900192</v>
+        <v>900191</v>
       </c>
       <c r="E197" s="18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F197" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G197" s="12"/>
     </row>
@@ -7353,16 +7365,16 @@
         <v>193</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D198" s="17">
-        <v>900193</v>
+        <v>900192</v>
       </c>
       <c r="E198" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="G198" s="12"/>
     </row>
@@ -7371,16 +7383,16 @@
         <v>194</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D199" s="17">
-        <v>900194</v>
+        <v>900193</v>
       </c>
       <c r="E199" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="G199" s="12"/>
     </row>
@@ -7389,16 +7401,16 @@
         <v>195</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D200" s="17">
-        <v>900195</v>
+        <v>900194</v>
       </c>
       <c r="E200" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="G200" s="12"/>
     </row>
@@ -7406,17 +7418,17 @@
       <c r="B201" s="7">
         <v>196</v>
       </c>
-      <c r="C201" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D201" s="22">
-        <v>900196</v>
-      </c>
-      <c r="E201" s="23">
+      <c r="C201" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D201" s="17">
+        <v>900195</v>
+      </c>
+      <c r="E201" s="18">
         <v>0.8</v>
       </c>
-      <c r="F201" s="22" t="s">
-        <v>316</v>
+      <c r="F201" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="G201" s="12"/>
     </row>
@@ -7424,17 +7436,17 @@
       <c r="B202" s="7">
         <v>197</v>
       </c>
-      <c r="C202" s="24" t="s">
-        <v>317</v>
+      <c r="C202" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="D202" s="22">
-        <v>900197</v>
+        <v>900196</v>
       </c>
       <c r="E202" s="23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F202" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G202" s="12"/>
     </row>
@@ -7443,16 +7455,16 @@
         <v>198</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D203" s="22">
-        <v>900198</v>
+        <v>900197</v>
       </c>
       <c r="E203" s="23">
         <v>1</v>
       </c>
       <c r="F203" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G203" s="12"/>
     </row>
@@ -7460,17 +7472,17 @@
       <c r="B204" s="7">
         <v>199</v>
       </c>
-      <c r="C204" s="21" t="s">
-        <v>321</v>
+      <c r="C204" s="24" t="s">
+        <v>319</v>
       </c>
       <c r="D204" s="22">
-        <v>900199</v>
+        <v>900198</v>
       </c>
       <c r="E204" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F204" s="22" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G204" s="12"/>
     </row>
@@ -7479,16 +7491,16 @@
         <v>200</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D205" s="22">
-        <v>900200</v>
+        <v>900199</v>
       </c>
       <c r="E205" s="23">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F205" s="22" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G205" s="12"/>
     </row>
@@ -7497,16 +7509,16 @@
         <v>201</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D206" s="22">
-        <v>900201</v>
+        <v>900200</v>
       </c>
       <c r="E206" s="23">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F206" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G206" s="12"/>
     </row>
@@ -7515,16 +7527,16 @@
         <v>202</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D207" s="22">
-        <v>900202</v>
+        <v>900201</v>
       </c>
       <c r="E207" s="23">
         <v>0.5</v>
       </c>
       <c r="F207" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G207" s="12"/>
     </row>
@@ -7533,16 +7545,16 @@
         <v>203</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D208" s="22">
-        <v>900203</v>
+        <v>900202</v>
       </c>
       <c r="E208" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F208" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G208" s="12"/>
     </row>
@@ -7551,16 +7563,16 @@
         <v>204</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D209" s="22">
-        <v>900204</v>
+        <v>900203</v>
       </c>
       <c r="E209" s="23">
         <v>1</v>
       </c>
       <c r="F209" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G209" s="12"/>
     </row>
@@ -7569,10 +7581,10 @@
         <v>205</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D210" s="22">
-        <v>900205</v>
+        <v>900204</v>
       </c>
       <c r="E210" s="23">
         <v>1</v>
@@ -7587,10 +7599,10 @@
         <v>206</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D211" s="22">
-        <v>900206</v>
+        <v>900205</v>
       </c>
       <c r="E211" s="23">
         <v>1</v>
@@ -7605,10 +7617,10 @@
         <v>207</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D212" s="22">
-        <v>900207</v>
+        <v>900206</v>
       </c>
       <c r="E212" s="23">
         <v>1</v>
@@ -7623,10 +7635,10 @@
         <v>208</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D213" s="22">
-        <v>900208</v>
+        <v>900207</v>
       </c>
       <c r="E213" s="23">
         <v>1</v>
@@ -7641,10 +7653,10 @@
         <v>209</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D214" s="22">
-        <v>900209</v>
+        <v>900208</v>
       </c>
       <c r="E214" s="23">
         <v>1</v>
@@ -7658,17 +7670,17 @@
       <c r="B215" s="7">
         <v>210</v>
       </c>
-      <c r="C215" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="D215" s="26">
-        <v>900210</v>
-      </c>
-      <c r="E215" s="27">
+      <c r="C215" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D215" s="22">
+        <v>900209</v>
+      </c>
+      <c r="E215" s="23">
         <v>1</v>
       </c>
-      <c r="F215" s="26" t="s">
-        <v>338</v>
+      <c r="F215" s="22" t="s">
+        <v>331</v>
       </c>
       <c r="G215" s="12"/>
     </row>
@@ -7677,16 +7689,16 @@
         <v>211</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D216" s="26">
-        <v>900211</v>
+        <v>900210</v>
       </c>
       <c r="E216" s="27">
         <v>1</v>
       </c>
       <c r="F216" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G216" s="12"/>
     </row>
@@ -7695,16 +7707,16 @@
         <v>212</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D217" s="26">
-        <v>900212</v>
+        <v>900211</v>
       </c>
       <c r="E217" s="27">
         <v>1</v>
       </c>
       <c r="F217" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G217" s="12"/>
     </row>
@@ -7713,16 +7725,16 @@
         <v>213</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D218" s="26">
-        <v>900213</v>
+        <v>900212</v>
       </c>
       <c r="E218" s="27">
         <v>1</v>
       </c>
       <c r="F218" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G218" s="12"/>
     </row>
@@ -7731,16 +7743,16 @@
         <v>214</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D219" s="26">
-        <v>900214</v>
+        <v>900213</v>
       </c>
       <c r="E219" s="27">
         <v>1</v>
       </c>
       <c r="F219" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G219" s="12"/>
     </row>
@@ -7749,16 +7761,16 @@
         <v>215</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D220" s="26">
-        <v>900215</v>
+        <v>900214</v>
       </c>
       <c r="E220" s="27">
         <v>1</v>
       </c>
       <c r="F220" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G220" s="12"/>
     </row>
@@ -7767,16 +7779,16 @@
         <v>216</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D221" s="26">
-        <v>900216</v>
+        <v>900215</v>
       </c>
       <c r="E221" s="27">
         <v>1</v>
       </c>
       <c r="F221" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G221" s="12"/>
     </row>
@@ -7785,16 +7797,16 @@
         <v>217</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D222" s="26">
-        <v>900217</v>
+        <v>900216</v>
       </c>
       <c r="E222" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G222" s="12"/>
     </row>
@@ -7802,17 +7814,17 @@
       <c r="B223" s="7">
         <v>218</v>
       </c>
-      <c r="C223" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="D223" s="29">
-        <v>900218</v>
-      </c>
-      <c r="E223" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="F223" s="29" t="s">
-        <v>354</v>
+      <c r="C223" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D223" s="26">
+        <v>900217</v>
+      </c>
+      <c r="E223" s="27">
+        <v>2</v>
+      </c>
+      <c r="F223" s="26" t="s">
+        <v>352</v>
       </c>
       <c r="G223" s="12"/>
     </row>
@@ -7821,16 +7833,16 @@
         <v>219</v>
       </c>
       <c r="C224" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D224" s="29">
-        <v>900219</v>
+        <v>900218</v>
       </c>
       <c r="E224" s="30">
         <v>0.4</v>
       </c>
       <c r="F224" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G224" s="12"/>
     </row>
@@ -7839,16 +7851,16 @@
         <v>220</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D225" s="29">
-        <v>900220</v>
+        <v>900219</v>
       </c>
       <c r="E225" s="30">
         <v>0.4</v>
       </c>
       <c r="F225" s="29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G225" s="12"/>
     </row>
@@ -7857,16 +7869,16 @@
         <v>221</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D226" s="29">
-        <v>900221</v>
+        <v>900220</v>
       </c>
       <c r="E226" s="30">
         <v>0.4</v>
       </c>
       <c r="F226" s="29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G226" s="12"/>
     </row>
@@ -7875,16 +7887,16 @@
         <v>222</v>
       </c>
       <c r="C227" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D227" s="29">
-        <v>900222</v>
+        <v>900221</v>
       </c>
       <c r="E227" s="30">
         <v>0.4</v>
       </c>
       <c r="F227" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G227" s="12"/>
     </row>
@@ -7893,16 +7905,16 @@
         <v>223</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D228" s="29">
-        <v>900223</v>
+        <v>900222</v>
       </c>
       <c r="E228" s="30">
         <v>0.4</v>
       </c>
       <c r="F228" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G228" s="12"/>
     </row>
@@ -7911,16 +7923,16 @@
         <v>224</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D229" s="29">
-        <v>900224</v>
+        <v>900223</v>
       </c>
       <c r="E229" s="30">
         <v>0.4</v>
       </c>
       <c r="F229" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G229" s="12"/>
     </row>
@@ -7929,16 +7941,16 @@
         <v>225</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D230" s="29">
-        <v>900225</v>
+        <v>900224</v>
       </c>
       <c r="E230" s="30">
         <v>0.4</v>
       </c>
       <c r="F230" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G230" s="12"/>
     </row>
@@ -7947,16 +7959,16 @@
         <v>226</v>
       </c>
       <c r="C231" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D231" s="29">
-        <v>900226</v>
+        <v>900225</v>
       </c>
       <c r="E231" s="30">
         <v>0.4</v>
       </c>
       <c r="F231" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G231" s="12"/>
     </row>
@@ -7965,16 +7977,16 @@
         <v>227</v>
       </c>
       <c r="C232" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D232" s="29">
-        <v>900227</v>
+        <v>900226</v>
       </c>
       <c r="E232" s="30">
         <v>0.4</v>
       </c>
       <c r="F232" s="29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G232" s="12"/>
     </row>
@@ -7983,16 +7995,16 @@
         <v>228</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D233" s="29">
-        <v>900228</v>
+        <v>900227</v>
       </c>
       <c r="E233" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F233" s="31" t="s">
-        <v>374</v>
+        <v>0.4</v>
+      </c>
+      <c r="F233" s="29" t="s">
+        <v>372</v>
       </c>
       <c r="G233" s="12"/>
     </row>
@@ -8001,16 +8013,16 @@
         <v>229</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D234" s="29">
-        <v>900229</v>
+        <v>900228</v>
       </c>
       <c r="E234" s="30">
         <v>0.5</v>
       </c>
       <c r="F234" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G234" s="12"/>
     </row>
@@ -8019,16 +8031,16 @@
         <v>230</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D235" s="29">
-        <v>900230</v>
+        <v>900229</v>
       </c>
       <c r="E235" s="30">
         <v>0.5</v>
       </c>
       <c r="F235" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G235" s="12"/>
     </row>
@@ -8037,16 +8049,16 @@
         <v>231</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D236" s="29">
-        <v>900231</v>
+        <v>900230</v>
       </c>
       <c r="E236" s="30">
         <v>0.5</v>
       </c>
       <c r="F236" s="31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G236" s="12"/>
     </row>
@@ -8055,16 +8067,16 @@
         <v>232</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D237" s="29">
-        <v>900232</v>
+        <v>900231</v>
       </c>
       <c r="E237" s="30">
         <v>0.5</v>
       </c>
       <c r="F237" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G237" s="12"/>
     </row>
@@ -8073,16 +8085,16 @@
         <v>233</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D238" s="29">
-        <v>900233</v>
+        <v>900232</v>
       </c>
       <c r="E238" s="30">
         <v>0.5</v>
       </c>
       <c r="F238" s="31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G238" s="12"/>
     </row>
@@ -8091,24 +8103,42 @@
         <v>234</v>
       </c>
       <c r="C239" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D239" s="29">
-        <v>900234</v>
+        <v>900233</v>
       </c>
       <c r="E239" s="30">
         <v>0.5</v>
       </c>
       <c r="F239" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="7">
+        <v>235</v>
+      </c>
+      <c r="C240" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D240" s="29">
+        <v>900234</v>
+      </c>
+      <c r="E240" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F240" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="G239" s="12"/>
-    </row>
-    <row r="240" spans="2:7">
-      <c r="B240" s="3"/>
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:G239" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}"/>
+  <autoFilter ref="B5:G240" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}"/>
   <mergeCells count="6">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
@@ -8122,7 +8152,7 @@
   <pageSetup paperSize="9" scale="18" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="239" max="16383" man="1"/>
+    <brk id="240" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="3" max="1048575" man="1"/>
@@ -8135,7 +8165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}">
   <dimension ref="B2:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46553856-6EA7-433A-B563-1D5EE0BC8C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D0DBD4-FBC4-49D4-A752-5BB708D971F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
     <sheet name="Icon_Table" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Icon_Table!$B$5:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prefab_Table!$B$5:$G$240</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3817,8 +3818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}">
   <dimension ref="B2:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8165,8 +8169,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}">
   <dimension ref="B2:F70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9151,6 +9158,7 @@
       <c r="F70" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:F5" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}"/>
   <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D0DBD4-FBC4-49D4-A752-5BB708D971F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DAFCB0-6C92-445A-ACD6-6FC8FD96FA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
     <sheet name="Icon_Table" sheetId="3" r:id="rId2"/>
+    <sheet name="Sound_Table" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Icon_Table!$B$5:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prefab_Table!$B$5:$G$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prefab_Table!$B$5:$G$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sound_Table!$B$5:$F$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="508">
   <si>
     <t>번호</t>
   </si>
@@ -2152,13 +2154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>합성</t>
-  </si>
-  <si>
-    <t>Buff/Effect/Fusion_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>시너지 01 거인</t>
   </si>
   <si>
@@ -3046,14 +3041,28 @@
     <t>Icon/Stage/Helm2_eq_icon_r</t>
   </si>
   <si>
-    <t>투명 투사체</t>
-  </si>
-  <si>
-    <t>투사체 이펙트에서만 사용</t>
-  </si>
-  <si>
-    <t>Skill/Default</t>
+    <t>빈 오브젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성 결과 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성 투사체 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/Prefabs/Projectile 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/Prefabs/Healing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3176,7 +3185,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3234,6 +3243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3369,7 +3384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3482,6 +3497,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3816,13 +3861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}">
-  <dimension ref="B2:G241"/>
+  <dimension ref="B2:G242"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3837,32 +3882,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="39"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
@@ -3908,17 +3953,17 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9">
-        <v>900001</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>18</v>
+      <c r="C6" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" s="39">
+        <v>900000</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>503</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -3927,16 +3972,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9">
-        <v>900002</v>
+        <v>900001</v>
       </c>
       <c r="E7" s="10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="12"/>
     </row>
@@ -3945,16 +3990,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9">
-        <v>900003</v>
+        <v>900002</v>
       </c>
       <c r="E8" s="10">
         <v>3</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="12"/>
     </row>
@@ -3962,17 +4007,17 @@
       <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="9">
-        <v>900004</v>
+        <v>900003</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="12"/>
     </row>
@@ -3981,16 +4026,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9">
-        <v>900005</v>
+        <v>900004</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="12"/>
     </row>
@@ -3999,16 +4044,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9">
-        <v>900006</v>
+        <v>900005</v>
       </c>
       <c r="E11" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="12"/>
     </row>
@@ -4017,16 +4062,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9">
-        <v>900007</v>
+        <v>900006</v>
       </c>
       <c r="E12" s="10">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="12"/>
     </row>
@@ -4035,16 +4080,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="9">
-        <v>900008</v>
+        <v>900007</v>
       </c>
       <c r="E13" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="12"/>
     </row>
@@ -4053,16 +4098,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="9">
-        <v>900009</v>
+        <v>900008</v>
       </c>
       <c r="E14" s="10">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="12"/>
     </row>
@@ -4071,16 +4116,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9">
-        <v>900010</v>
+        <v>900009</v>
       </c>
       <c r="E15" s="10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="12"/>
     </row>
@@ -4089,16 +4134,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9">
-        <v>900011</v>
+        <v>900010</v>
       </c>
       <c r="E16" s="10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -4107,16 +4152,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9">
-        <v>900012</v>
+        <v>900011</v>
       </c>
       <c r="E17" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17" s="12"/>
     </row>
@@ -4125,16 +4170,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="9">
-        <v>900013</v>
+        <v>900012</v>
       </c>
       <c r="E18" s="10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="12"/>
     </row>
@@ -4143,16 +4188,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9">
-        <v>900014</v>
+        <v>900013</v>
       </c>
       <c r="E19" s="10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G19" s="12"/>
     </row>
@@ -4161,16 +4206,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="9">
-        <v>900015</v>
+        <v>900014</v>
       </c>
       <c r="E20" s="10">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G20" s="12"/>
     </row>
@@ -4179,16 +4224,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="9">
-        <v>900016</v>
+        <v>900015</v>
       </c>
       <c r="E21" s="10">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="12"/>
     </row>
@@ -4197,54 +4242,54 @@
         <v>17</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9">
-        <v>900017</v>
+        <v>900016</v>
       </c>
       <c r="E22" s="10">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="7">
         <v>18</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9">
-        <v>900018</v>
+        <v>900017</v>
       </c>
       <c r="E23" s="10">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7">
         <v>19</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="9">
-        <v>900019</v>
+        <v>900018</v>
       </c>
       <c r="E24" s="10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G24" s="12"/>
     </row>
@@ -4253,16 +4298,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="9">
-        <v>900020</v>
+        <v>900019</v>
       </c>
       <c r="E25" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="12"/>
     </row>
@@ -4271,16 +4316,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="9">
-        <v>900021</v>
+        <v>900020</v>
       </c>
       <c r="E26" s="10">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" s="12"/>
     </row>
@@ -4289,16 +4334,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="9">
-        <v>900022</v>
+        <v>900021</v>
       </c>
       <c r="E27" s="10">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="12"/>
     </row>
@@ -4307,16 +4352,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="9">
-        <v>900023</v>
+        <v>900022</v>
       </c>
       <c r="E28" s="10">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="12"/>
     </row>
@@ -4325,16 +4370,16 @@
         <v>24</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="9">
-        <v>900024</v>
+        <v>900023</v>
       </c>
       <c r="E29" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G29" s="12"/>
     </row>
@@ -4343,16 +4388,16 @@
         <v>25</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="9">
-        <v>900025</v>
+        <v>900024</v>
       </c>
       <c r="E30" s="10">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G30" s="12"/>
     </row>
@@ -4361,16 +4406,16 @@
         <v>26</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="9">
-        <v>900026</v>
+        <v>900025</v>
       </c>
       <c r="E31" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G31" s="12"/>
     </row>
@@ -4379,16 +4424,16 @@
         <v>27</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="9">
-        <v>900027</v>
+        <v>900026</v>
       </c>
       <c r="E32" s="10">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G32" s="12"/>
     </row>
@@ -4397,16 +4442,16 @@
         <v>28</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="9">
-        <v>900028</v>
+        <v>900027</v>
       </c>
       <c r="E33" s="10">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G33" s="12"/>
     </row>
@@ -4415,16 +4460,16 @@
         <v>29</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="9">
-        <v>900029</v>
+        <v>900028</v>
       </c>
       <c r="E34" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G34" s="12"/>
     </row>
@@ -4433,16 +4478,16 @@
         <v>30</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" s="9">
-        <v>900030</v>
+        <v>900029</v>
       </c>
       <c r="E35" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="12"/>
     </row>
@@ -4450,17 +4495,17 @@
       <c r="B36" s="7">
         <v>31</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>23</v>
+      <c r="C36" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D36" s="9">
-        <v>900031</v>
+        <v>900030</v>
       </c>
       <c r="E36" s="10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="12"/>
     </row>
@@ -4469,16 +4514,16 @@
         <v>32</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="9">
-        <v>900032</v>
+        <v>900031</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" s="12"/>
     </row>
@@ -4487,16 +4532,16 @@
         <v>33</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D38" s="9">
-        <v>900033</v>
+        <v>900032</v>
       </c>
       <c r="E38" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="12"/>
     </row>
@@ -4505,16 +4550,16 @@
         <v>34</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="9">
-        <v>900034</v>
+        <v>900033</v>
       </c>
       <c r="E39" s="10">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="12"/>
     </row>
@@ -4523,16 +4568,16 @@
         <v>35</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="9">
-        <v>900035</v>
+        <v>900034</v>
       </c>
       <c r="E40" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G40" s="12"/>
     </row>
@@ -4541,16 +4586,16 @@
         <v>36</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" s="9">
-        <v>900036</v>
+        <v>900035</v>
       </c>
       <c r="E41" s="10">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="12"/>
     </row>
@@ -4559,16 +4604,16 @@
         <v>37</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D42" s="9">
-        <v>900037</v>
+        <v>900036</v>
       </c>
       <c r="E42" s="10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="12"/>
     </row>
@@ -4577,16 +4622,16 @@
         <v>38</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D43" s="9">
-        <v>900038</v>
+        <v>900037</v>
       </c>
       <c r="E43" s="10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" s="12"/>
     </row>
@@ -4595,16 +4640,16 @@
         <v>39</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D44" s="9">
-        <v>900039</v>
+        <v>900038</v>
       </c>
       <c r="E44" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" s="12"/>
     </row>
@@ -4613,16 +4658,16 @@
         <v>40</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D45" s="9">
-        <v>900040</v>
+        <v>900039</v>
       </c>
       <c r="E45" s="10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" s="12"/>
     </row>
@@ -4631,16 +4676,16 @@
         <v>41</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" s="9">
-        <v>900041</v>
+        <v>900040</v>
       </c>
       <c r="E46" s="10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G46" s="12"/>
     </row>
@@ -4649,16 +4694,16 @@
         <v>42</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D47" s="9">
-        <v>900042</v>
+        <v>900041</v>
       </c>
       <c r="E47" s="10">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" s="12"/>
     </row>
@@ -4667,16 +4712,16 @@
         <v>43</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D48" s="9">
-        <v>900043</v>
+        <v>900042</v>
       </c>
       <c r="E48" s="10">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" s="12"/>
     </row>
@@ -4685,16 +4730,16 @@
         <v>44</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D49" s="9">
-        <v>900044</v>
+        <v>900043</v>
       </c>
       <c r="E49" s="10">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" s="12"/>
     </row>
@@ -4703,16 +4748,16 @@
         <v>45</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D50" s="9">
-        <v>900045</v>
+        <v>900044</v>
       </c>
       <c r="E50" s="10">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="12"/>
     </row>
@@ -4721,16 +4766,16 @@
         <v>46</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="9">
-        <v>900046</v>
+        <v>900045</v>
       </c>
       <c r="E51" s="10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="12"/>
     </row>
@@ -4739,16 +4784,16 @@
         <v>47</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="9">
-        <v>900047</v>
+        <v>900046</v>
       </c>
       <c r="E52" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="12"/>
     </row>
@@ -4757,16 +4802,16 @@
         <v>48</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D53" s="9">
-        <v>900048</v>
+        <v>900047</v>
       </c>
       <c r="E53" s="10">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G53" s="12"/>
     </row>
@@ -4775,16 +4820,16 @@
         <v>49</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" s="9">
-        <v>900049</v>
+        <v>900048</v>
       </c>
       <c r="E54" s="10">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G54" s="12"/>
     </row>
@@ -4793,16 +4838,16 @@
         <v>50</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="9">
-        <v>900050</v>
+        <v>900049</v>
       </c>
       <c r="E55" s="10">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G55" s="12"/>
     </row>
@@ -4811,16 +4856,16 @@
         <v>51</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="9">
-        <v>900051</v>
+        <v>900050</v>
       </c>
       <c r="E56" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G56" s="12"/>
     </row>
@@ -4829,16 +4874,16 @@
         <v>52</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57" s="9">
-        <v>900052</v>
+        <v>900051</v>
       </c>
       <c r="E57" s="10">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="12"/>
     </row>
@@ -4847,16 +4892,16 @@
         <v>53</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D58" s="9">
-        <v>900053</v>
+        <v>900052</v>
       </c>
       <c r="E58" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G58" s="12"/>
     </row>
@@ -4865,16 +4910,16 @@
         <v>54</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="9">
-        <v>900054</v>
+        <v>900053</v>
       </c>
       <c r="E59" s="10">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G59" s="12"/>
     </row>
@@ -4883,16 +4928,16 @@
         <v>55</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="9">
-        <v>900055</v>
+        <v>900054</v>
       </c>
       <c r="E60" s="10">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -4901,16 +4946,16 @@
         <v>56</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D61" s="9">
-        <v>900056</v>
+        <v>900055</v>
       </c>
       <c r="E61" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G61" s="12"/>
     </row>
@@ -4919,16 +4964,16 @@
         <v>57</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" s="9">
-        <v>900057</v>
+        <v>900056</v>
       </c>
       <c r="E62" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62" s="12"/>
     </row>
@@ -4936,17 +4981,17 @@
       <c r="B63" s="7">
         <v>58</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>23</v>
+      <c r="C63" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D63" s="9">
-        <v>900058</v>
+        <v>900057</v>
       </c>
       <c r="E63" s="10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G63" s="12"/>
     </row>
@@ -4955,16 +5000,16 @@
         <v>59</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D64" s="9">
-        <v>900059</v>
+        <v>900058</v>
       </c>
       <c r="E64" s="10">
         <v>1</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G64" s="12"/>
     </row>
@@ -4973,16 +5018,16 @@
         <v>60</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D65" s="9">
-        <v>900060</v>
+        <v>900059</v>
       </c>
       <c r="E65" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G65" s="12"/>
     </row>
@@ -4991,16 +5036,16 @@
         <v>61</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="9">
-        <v>900061</v>
+        <v>900060</v>
       </c>
       <c r="E66" s="10">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G66" s="12"/>
     </row>
@@ -5009,16 +5054,16 @@
         <v>62</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D67" s="9">
-        <v>900062</v>
+        <v>900061</v>
       </c>
       <c r="E67" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G67" s="12"/>
     </row>
@@ -5027,16 +5072,16 @@
         <v>63</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D68" s="9">
-        <v>900063</v>
+        <v>900062</v>
       </c>
       <c r="E68" s="10">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G68" s="12"/>
     </row>
@@ -5045,16 +5090,16 @@
         <v>64</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D69" s="9">
-        <v>900064</v>
+        <v>900063</v>
       </c>
       <c r="E69" s="10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G69" s="12"/>
     </row>
@@ -5063,16 +5108,16 @@
         <v>65</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D70" s="9">
-        <v>900065</v>
+        <v>900064</v>
       </c>
       <c r="E70" s="10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G70" s="12"/>
     </row>
@@ -5081,16 +5126,16 @@
         <v>66</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D71" s="9">
-        <v>900066</v>
+        <v>900065</v>
       </c>
       <c r="E71" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G71" s="12"/>
     </row>
@@ -5099,16 +5144,16 @@
         <v>67</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D72" s="9">
-        <v>900067</v>
+        <v>900066</v>
       </c>
       <c r="E72" s="10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G72" s="12"/>
     </row>
@@ -5117,16 +5162,16 @@
         <v>68</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D73" s="9">
-        <v>900068</v>
+        <v>900067</v>
       </c>
       <c r="E73" s="10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G73" s="12"/>
     </row>
@@ -5135,16 +5180,16 @@
         <v>69</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D74" s="9">
-        <v>900069</v>
+        <v>900068</v>
       </c>
       <c r="E74" s="10">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G74" s="12"/>
     </row>
@@ -5153,16 +5198,16 @@
         <v>70</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D75" s="9">
-        <v>900070</v>
+        <v>900069</v>
       </c>
       <c r="E75" s="10">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G75" s="12"/>
     </row>
@@ -5171,16 +5216,16 @@
         <v>71</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D76" s="9">
-        <v>900071</v>
+        <v>900070</v>
       </c>
       <c r="E76" s="10">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G76" s="12"/>
     </row>
@@ -5189,16 +5234,16 @@
         <v>72</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D77" s="9">
-        <v>900072</v>
+        <v>900071</v>
       </c>
       <c r="E77" s="10">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G77" s="12"/>
     </row>
@@ -5207,16 +5252,16 @@
         <v>73</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D78" s="9">
-        <v>900073</v>
+        <v>900072</v>
       </c>
       <c r="E78" s="10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G78" s="12"/>
     </row>
@@ -5225,16 +5270,16 @@
         <v>74</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D79" s="9">
-        <v>900074</v>
+        <v>900073</v>
       </c>
       <c r="E79" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G79" s="12"/>
     </row>
@@ -5243,16 +5288,16 @@
         <v>75</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D80" s="9">
-        <v>900075</v>
+        <v>900074</v>
       </c>
       <c r="E80" s="10">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G80" s="12"/>
     </row>
@@ -5261,16 +5306,16 @@
         <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D81" s="9">
-        <v>900076</v>
+        <v>900075</v>
       </c>
       <c r="E81" s="10">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G81" s="12"/>
     </row>
@@ -5279,16 +5324,16 @@
         <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D82" s="9">
-        <v>900077</v>
+        <v>900076</v>
       </c>
       <c r="E82" s="10">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G82" s="12"/>
     </row>
@@ -5297,16 +5342,16 @@
         <v>78</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D83" s="9">
-        <v>900078</v>
+        <v>900077</v>
       </c>
       <c r="E83" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G83" s="12"/>
     </row>
@@ -5315,16 +5360,16 @@
         <v>79</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D84" s="9">
-        <v>900079</v>
+        <v>900078</v>
       </c>
       <c r="E84" s="10">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G84" s="12"/>
     </row>
@@ -5333,16 +5378,16 @@
         <v>80</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D85" s="9">
-        <v>900080</v>
+        <v>900079</v>
       </c>
       <c r="E85" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G85" s="12"/>
     </row>
@@ -5351,16 +5396,16 @@
         <v>81</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D86" s="9">
-        <v>900081</v>
+        <v>900080</v>
       </c>
       <c r="E86" s="10">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G86" s="12"/>
     </row>
@@ -5369,16 +5414,16 @@
         <v>82</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D87" s="9">
-        <v>900082</v>
+        <v>900081</v>
       </c>
       <c r="E87" s="10">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G87" s="12"/>
     </row>
@@ -5387,16 +5432,16 @@
         <v>83</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D88" s="9">
-        <v>900083</v>
+        <v>900082</v>
       </c>
       <c r="E88" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G88" s="12"/>
     </row>
@@ -5405,16 +5450,16 @@
         <v>84</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D89" s="9">
-        <v>900084</v>
+        <v>900083</v>
       </c>
       <c r="E89" s="10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G89" s="12"/>
     </row>
@@ -5422,17 +5467,17 @@
       <c r="B90" s="7">
         <v>85</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>132</v>
+      <c r="C90" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D90" s="9">
-        <v>900085</v>
+        <v>900084</v>
       </c>
       <c r="E90" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>133</v>
+        <v>1.3</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="G90" s="12"/>
     </row>
@@ -5441,16 +5486,16 @@
         <v>86</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D91" s="9">
-        <v>900086</v>
+        <v>900085</v>
       </c>
       <c r="E91" s="10">
         <v>0.7</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G91" s="12"/>
     </row>
@@ -5459,16 +5504,16 @@
         <v>87</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D92" s="9">
-        <v>900087</v>
+        <v>900086</v>
       </c>
       <c r="E92" s="10">
         <v>0.7</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G92" s="12"/>
     </row>
@@ -5477,16 +5522,16 @@
         <v>88</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D93" s="9">
-        <v>900088</v>
+        <v>900087</v>
       </c>
       <c r="E93" s="10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G93" s="12"/>
     </row>
@@ -5495,16 +5540,16 @@
         <v>89</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D94" s="9">
-        <v>900089</v>
+        <v>900088</v>
       </c>
       <c r="E94" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G94" s="12"/>
     </row>
@@ -5513,16 +5558,16 @@
         <v>90</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95" s="9">
-        <v>900090</v>
+        <v>900089</v>
       </c>
       <c r="E95" s="10">
         <v>0.7</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G95" s="12"/>
     </row>
@@ -5531,16 +5576,16 @@
         <v>91</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D96" s="9">
-        <v>900091</v>
+        <v>900090</v>
       </c>
       <c r="E96" s="10">
         <v>0.7</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G96" s="12"/>
     </row>
@@ -5549,16 +5594,16 @@
         <v>92</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D97" s="9">
-        <v>900092</v>
+        <v>900091</v>
       </c>
       <c r="E97" s="10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G97" s="12"/>
     </row>
@@ -5567,16 +5612,16 @@
         <v>93</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D98" s="9">
-        <v>900093</v>
+        <v>900092</v>
       </c>
       <c r="E98" s="10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G98" s="12"/>
     </row>
@@ -5585,16 +5630,16 @@
         <v>94</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D99" s="9">
-        <v>900094</v>
+        <v>900093</v>
       </c>
       <c r="E99" s="10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G99" s="12"/>
     </row>
@@ -5603,16 +5648,16 @@
         <v>95</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D100" s="9">
-        <v>900095</v>
+        <v>900094</v>
       </c>
       <c r="E100" s="10">
         <v>0.5</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G100" s="12"/>
     </row>
@@ -5621,16 +5666,16 @@
         <v>96</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D101" s="9">
-        <v>900096</v>
+        <v>900095</v>
       </c>
       <c r="E101" s="10">
         <v>0.5</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G101" s="12"/>
     </row>
@@ -5639,16 +5684,16 @@
         <v>97</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D102" s="9">
-        <v>900097</v>
+        <v>900096</v>
       </c>
       <c r="E102" s="10">
         <v>0.5</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G102" s="12"/>
     </row>
@@ -5657,16 +5702,16 @@
         <v>98</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D103" s="9">
-        <v>900098</v>
+        <v>900097</v>
       </c>
       <c r="E103" s="10">
         <v>0.5</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G103" s="12"/>
     </row>
@@ -5675,16 +5720,16 @@
         <v>99</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D104" s="9">
-        <v>900099</v>
+        <v>900098</v>
       </c>
       <c r="E104" s="10">
         <v>0.5</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G104" s="12"/>
     </row>
@@ -5692,21 +5737,19 @@
       <c r="B105" s="7">
         <v>100</v>
       </c>
-      <c r="C105" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D105" s="17">
-        <v>900000</v>
-      </c>
-      <c r="E105" s="18">
-        <v>1</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>505</v>
-      </c>
+      <c r="C105" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" s="9">
+        <v>900099</v>
+      </c>
+      <c r="E105" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G105" s="12"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="7">
@@ -5740,7 +5783,7 @@
         <v>0.7</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G107" s="12"/>
     </row>
@@ -6028,7 +6071,7 @@
         <v>0.7</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G123" s="12"/>
     </row>
@@ -6082,7 +6125,7 @@
         <v>1.2</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G126" s="12"/>
     </row>
@@ -6208,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G133" s="12"/>
     </row>
@@ -6262,7 +6305,7 @@
         <v>1.5</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G136" s="12"/>
     </row>
@@ -6352,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G141" s="12"/>
     </row>
@@ -6442,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G146" s="12"/>
     </row>
@@ -6694,7 +6737,7 @@
         <v>0.7</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G160" s="12"/>
     </row>
@@ -7090,7 +7133,7 @@
         <v>0.7</v>
       </c>
       <c r="F182" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G182" s="12"/>
     </row>
@@ -7144,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G185" s="12"/>
     </row>
@@ -7270,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G192" s="12"/>
     </row>
@@ -7342,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G196" s="12"/>
     </row>
@@ -7819,16 +7862,16 @@
         <v>218</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>351</v>
+        <v>504</v>
       </c>
       <c r="D223" s="26">
         <v>900217</v>
       </c>
       <c r="E223" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F223" s="26" t="s">
-        <v>352</v>
+        <v>507</v>
       </c>
       <c r="G223" s="12"/>
     </row>
@@ -7837,7 +7880,7 @@
         <v>219</v>
       </c>
       <c r="C224" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D224" s="29">
         <v>900218</v>
@@ -7846,7 +7889,7 @@
         <v>0.4</v>
       </c>
       <c r="F224" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G224" s="12"/>
     </row>
@@ -7855,7 +7898,7 @@
         <v>220</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D225" s="29">
         <v>900219</v>
@@ -7864,7 +7907,7 @@
         <v>0.4</v>
       </c>
       <c r="F225" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G225" s="12"/>
     </row>
@@ -7873,7 +7916,7 @@
         <v>221</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D226" s="29">
         <v>900220</v>
@@ -7882,7 +7925,7 @@
         <v>0.4</v>
       </c>
       <c r="F226" s="29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G226" s="12"/>
     </row>
@@ -7891,7 +7934,7 @@
         <v>222</v>
       </c>
       <c r="C227" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D227" s="29">
         <v>900221</v>
@@ -7900,7 +7943,7 @@
         <v>0.4</v>
       </c>
       <c r="F227" s="29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G227" s="12"/>
     </row>
@@ -7909,7 +7952,7 @@
         <v>223</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D228" s="29">
         <v>900222</v>
@@ -7918,7 +7961,7 @@
         <v>0.4</v>
       </c>
       <c r="F228" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G228" s="12"/>
     </row>
@@ -7927,7 +7970,7 @@
         <v>224</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D229" s="29">
         <v>900223</v>
@@ -7936,7 +7979,7 @@
         <v>0.4</v>
       </c>
       <c r="F229" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G229" s="12"/>
     </row>
@@ -7945,7 +7988,7 @@
         <v>225</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D230" s="29">
         <v>900224</v>
@@ -7954,7 +7997,7 @@
         <v>0.4</v>
       </c>
       <c r="F230" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G230" s="12"/>
     </row>
@@ -7963,7 +8006,7 @@
         <v>226</v>
       </c>
       <c r="C231" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D231" s="29">
         <v>900225</v>
@@ -7972,7 +8015,7 @@
         <v>0.4</v>
       </c>
       <c r="F231" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G231" s="12"/>
     </row>
@@ -7981,7 +8024,7 @@
         <v>227</v>
       </c>
       <c r="C232" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D232" s="29">
         <v>900226</v>
@@ -7990,7 +8033,7 @@
         <v>0.4</v>
       </c>
       <c r="F232" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G232" s="12"/>
     </row>
@@ -7999,7 +8042,7 @@
         <v>228</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D233" s="29">
         <v>900227</v>
@@ -8008,7 +8051,7 @@
         <v>0.4</v>
       </c>
       <c r="F233" s="29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G233" s="12"/>
     </row>
@@ -8017,7 +8060,7 @@
         <v>229</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D234" s="29">
         <v>900228</v>
@@ -8026,7 +8069,7 @@
         <v>0.5</v>
       </c>
       <c r="F234" s="31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G234" s="12"/>
     </row>
@@ -8035,7 +8078,7 @@
         <v>230</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D235" s="29">
         <v>900229</v>
@@ -8044,7 +8087,7 @@
         <v>0.5</v>
       </c>
       <c r="F235" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G235" s="12"/>
     </row>
@@ -8053,7 +8096,7 @@
         <v>231</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D236" s="29">
         <v>900230</v>
@@ -8062,7 +8105,7 @@
         <v>0.5</v>
       </c>
       <c r="F236" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G236" s="12"/>
     </row>
@@ -8071,7 +8114,7 @@
         <v>232</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D237" s="29">
         <v>900231</v>
@@ -8080,7 +8123,7 @@
         <v>0.5</v>
       </c>
       <c r="F237" s="31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G237" s="12"/>
     </row>
@@ -8089,7 +8132,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D238" s="29">
         <v>900232</v>
@@ -8098,7 +8141,7 @@
         <v>0.5</v>
       </c>
       <c r="F238" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G238" s="12"/>
     </row>
@@ -8107,7 +8150,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D239" s="29">
         <v>900233</v>
@@ -8116,7 +8159,7 @@
         <v>0.5</v>
       </c>
       <c r="F239" s="31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G239" s="12"/>
     </row>
@@ -8125,7 +8168,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D240" s="29">
         <v>900234</v>
@@ -8134,15 +8177,33 @@
         <v>0.5</v>
       </c>
       <c r="F240" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G240" s="12"/>
     </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="3"/>
+    <row r="241" spans="2:7">
+      <c r="B241" s="7">
+        <v>236</v>
+      </c>
+      <c r="C241" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="D241" s="26">
+        <v>900235</v>
+      </c>
+      <c r="E241" s="27">
+        <v>2</v>
+      </c>
+      <c r="F241" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="2:7">
+      <c r="B242" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:G240" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}"/>
+  <autoFilter ref="B5:G241" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}"/>
   <mergeCells count="6">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
@@ -8156,7 +8217,7 @@
   <pageSetup paperSize="9" scale="18" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="240" max="16383" man="1"/>
+    <brk id="241" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="3" max="1048575" man="1"/>
@@ -8169,11 +8230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}">
   <dimension ref="B2:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8187,28 +8248,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="32" t="s">
@@ -8249,13 +8310,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D6" s="37">
         <v>910001</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -8264,13 +8325,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D7" s="37">
         <v>910002</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -8279,13 +8340,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D8" s="37">
         <v>910003</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -8294,13 +8355,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D9" s="37">
         <v>910004</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -8309,13 +8370,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D10" s="37">
         <v>910005</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -8324,13 +8385,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D11" s="37">
         <v>910006</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -8339,13 +8400,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D12" s="37">
         <v>910007</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -8354,13 +8415,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D13" s="37">
         <v>910008</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -8369,13 +8430,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D14" s="37">
         <v>910009</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F14" s="12"/>
     </row>
@@ -8384,13 +8445,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D15" s="37">
         <v>910010</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -8399,13 +8460,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D16" s="37">
         <v>910011</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -8414,13 +8475,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D17" s="37">
         <v>910012</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -8429,13 +8490,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D18" s="37">
         <v>910013</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -8444,13 +8505,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D19" s="37">
         <v>910014</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -8459,13 +8520,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D20" s="37">
         <v>910015</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -8474,13 +8535,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D21" s="37">
         <v>910016</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -8489,13 +8550,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D22" s="37">
         <v>910017</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F22" s="12"/>
     </row>
@@ -8504,13 +8565,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D23" s="37">
         <v>910018</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -8519,13 +8580,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D24" s="37">
         <v>910019</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F24" s="12"/>
     </row>
@@ -8534,13 +8595,13 @@
         <v>20</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D25" s="37">
         <v>910020</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F25" s="12"/>
     </row>
@@ -8549,13 +8610,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D26" s="37">
         <v>910021</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -8564,13 +8625,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D27" s="37">
         <v>910022</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F27" s="12"/>
     </row>
@@ -8579,13 +8640,13 @@
         <v>23</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D28" s="37">
         <v>910023</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F28" s="12"/>
     </row>
@@ -8594,13 +8655,13 @@
         <v>24</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D29" s="37">
         <v>910024</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F29" s="12"/>
     </row>
@@ -8609,13 +8670,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D30" s="37">
         <v>910025</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F30" s="12"/>
     </row>
@@ -8624,13 +8685,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D31" s="37">
         <v>910026</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F31" s="12"/>
     </row>
@@ -8639,13 +8700,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D32" s="37">
         <v>910027</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F32" s="12"/>
     </row>
@@ -8654,13 +8715,13 @@
         <v>28</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D33" s="37">
         <v>910028</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F33" s="12"/>
     </row>
@@ -8669,13 +8730,13 @@
         <v>29</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D34" s="37">
         <v>910029</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F34" s="12"/>
     </row>
@@ -8684,13 +8745,13 @@
         <v>30</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D35" s="37">
         <v>910030</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F35" s="12"/>
     </row>
@@ -8699,13 +8760,13 @@
         <v>31</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D36" s="37">
         <v>910031</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F36" s="12"/>
     </row>
@@ -8714,13 +8775,13 @@
         <v>32</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D37" s="37">
         <v>910032</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F37" s="12"/>
     </row>
@@ -8729,13 +8790,13 @@
         <v>33</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D38" s="37">
         <v>910033</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F38" s="12"/>
     </row>
@@ -8744,13 +8805,13 @@
         <v>34</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D39" s="29">
         <v>910034</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -8759,13 +8820,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D40" s="29">
         <v>910035</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F40" s="12"/>
     </row>
@@ -8774,13 +8835,13 @@
         <v>36</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D41" s="29">
         <v>910036</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F41" s="12"/>
     </row>
@@ -8789,13 +8850,13 @@
         <v>37</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D42" s="29">
         <v>910037</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F42" s="12"/>
     </row>
@@ -8804,13 +8865,13 @@
         <v>38</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D43" s="29">
         <v>910038</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F43" s="12"/>
     </row>
@@ -8819,13 +8880,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D44" s="29">
         <v>910039</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F44" s="12"/>
     </row>
@@ -8834,13 +8895,13 @@
         <v>40</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D45" s="29">
         <v>910040</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F45" s="12"/>
     </row>
@@ -8849,13 +8910,13 @@
         <v>41</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D46" s="29">
         <v>910041</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F46" s="12"/>
     </row>
@@ -8864,13 +8925,13 @@
         <v>42</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D47" s="29">
         <v>910042</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F47" s="12"/>
     </row>
@@ -8879,13 +8940,13 @@
         <v>43</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D48" s="29">
         <v>910043</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F48" s="12"/>
     </row>
@@ -8894,13 +8955,13 @@
         <v>44</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D49" s="29">
         <v>910044</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F49" s="12"/>
     </row>
@@ -8909,13 +8970,13 @@
         <v>45</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D50" s="29">
         <v>910045</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F50" s="12"/>
     </row>
@@ -8924,13 +8985,13 @@
         <v>46</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D51" s="29">
         <v>910046</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F51" s="12"/>
     </row>
@@ -8939,13 +9000,13 @@
         <v>47</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D52" s="29">
         <v>910047</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F52" s="12"/>
     </row>
@@ -8954,13 +9015,13 @@
         <v>48</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D53" s="29">
         <v>910048</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F53" s="12"/>
     </row>
@@ -8969,13 +9030,13 @@
         <v>49</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D54" s="29">
         <v>910049</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F54" s="12"/>
     </row>
@@ -8984,13 +9045,13 @@
         <v>50</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D55" s="29">
         <v>910050</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F55" s="12"/>
     </row>
@@ -8999,13 +9060,13 @@
         <v>51</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D56" s="17">
         <v>910051</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F56" s="12"/>
     </row>
@@ -9014,13 +9075,13 @@
         <v>52</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D57" s="17">
         <v>910052</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F57" s="12"/>
     </row>
@@ -9029,16 +9090,16 @@
         <v>53</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D58" s="17">
         <v>910053</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -9046,16 +9107,16 @@
         <v>54</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D59" s="17">
         <v>910054</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="2:6">
@@ -9156,6 +9217,695 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B5:F5" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="3" max="16383" man="1"/>
+    <brk id="59" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="3" max="1048575" man="1"/>
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1B3E40-FA0C-4B11-BC5C-C6256F1D0C45}">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" customFormat="1"/>
+    <row r="2" spans="2:6" customFormat="1">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" customFormat="1">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" customFormat="1">
+      <c r="B4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" customFormat="1">
+      <c r="B5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="7">
+        <v>6</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="7">
+        <v>7</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="7">
+        <v>9</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="7">
+        <v>10</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="7">
+        <v>11</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="7">
+        <v>12</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="7">
+        <v>13</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="7">
+        <v>14</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="7">
+        <v>15</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="7">
+        <v>16</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="7">
+        <v>17</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="7">
+        <v>18</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="7">
+        <v>19</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="7">
+        <v>20</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="7">
+        <v>21</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="7">
+        <v>22</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="7">
+        <v>23</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="7">
+        <v>24</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="7">
+        <v>25</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="7">
+        <v>26</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="7">
+        <v>27</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="7">
+        <v>28</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="7">
+        <v>29</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="7">
+        <v>30</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="7">
+        <v>31</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="7">
+        <v>32</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="7">
+        <v>33</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="7">
+        <v>34</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="7">
+        <v>35</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="7">
+        <v>36</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="7">
+        <v>37</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="7">
+        <v>38</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="7">
+        <v>39</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="7">
+        <v>40</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="7">
+        <v>41</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="7">
+        <v>42</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="7">
+        <v>43</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="7">
+        <v>44</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="7">
+        <v>45</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="7">
+        <v>46</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="7">
+        <v>47</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="7">
+        <v>48</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="7">
+        <v>49</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="7">
+        <v>50</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="7">
+        <v>51</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="7">
+        <v>52</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="7">
+        <v>53</v>
+      </c>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="44"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="7">
+        <v>54</v>
+      </c>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="44"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="3">
+        <v>55</v>
+      </c>
+      <c r="C60" s="45"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="47"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="3">
+        <v>56</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="3">
+        <v>57</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="3">
+        <v>58</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="3">
+        <v>59</v>
+      </c>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="3">
+        <v>60</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="3">
+        <v>61</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="3">
+        <v>62</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="3">
+        <v>63</v>
+      </c>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="3">
+        <v>64</v>
+      </c>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="3">
+        <v>65</v>
+      </c>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:F5" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}"/>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DAFCB0-6C92-445A-ACD6-6FC8FD96FA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE0F02-AAB1-4F90-810F-B788C9975797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -3057,11 +3057,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect/Prefabs/Projectile 12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect/Prefabs/Healing</t>
+    <t>Combination/Effect/Healing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combination/Effect/Projectile_12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3864,10 +3864,10 @@
   <dimension ref="B2:G242"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E224" sqref="E224"/>
+      <selection pane="bottomRight" activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7871,7 +7871,7 @@
         <v>3</v>
       </c>
       <c r="F223" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G223" s="12"/>
     </row>
@@ -8195,7 +8195,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G241" s="12"/>
     </row>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB03C3-7199-489F-9822-910447D46DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17890925-4CE9-44B8-B084-AF4111666EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3525" yWindow="8025" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="-7050" yWindow="3330" windowWidth="14400" windowHeight="12210" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="681">
   <si>
     <t>번호</t>
   </si>
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>Devil/Prefabs/HateQueen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지옥의 군주</t>
@@ -370,7 +370,7 @@
   </si>
   <si>
     <t>Tower/Prefabs/Sparkmon02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tower/Prefabs/Salamander02</t>
@@ -452,7 +452,7 @@
   </si>
   <si>
     <t>Tower/Prefabs/Sparkmon03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tower/Prefabs/Salamander04</t>
@@ -609,7 +609,7 @@
   </si>
   <si>
     <t>Devil/Effect/Boss_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>증오의여왕 일반 투사체</t>
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t>Devil/Effect/BossHit_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -675,11 +675,11 @@
       </rPr>
       <t>분출</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/Boss_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -735,11 +735,11 @@
       </rPr>
       <t>피격</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/BossHit_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -795,11 +795,11 @@
       </rPr>
       <t>분출</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/Boss_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -855,18 +855,18 @@
       </rPr>
       <t>피격</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/BossHit_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지옥의군주 일반 피격</t>
   </si>
   <si>
     <t>Devil/Effect/BossHit_04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -922,11 +922,11 @@
       </rPr>
       <t>분출</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/Boss_05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -982,11 +982,11 @@
       </rPr>
       <t>분출</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/BossHit_05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1042,11 +1042,11 @@
       </rPr>
       <t>피격</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/Hit_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1102,11 +1102,11 @@
       </rPr>
       <t>피격</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/Hit_14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,11 +1162,11 @@
       </rPr>
       <t>분출</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/Boss_08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1222,11 +1222,11 @@
       </rPr>
       <t>피격</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/BossHit_08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1282,11 +1282,11 @@
       </rPr>
       <t>분출</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/Boss_09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1342,18 +1342,18 @@
       </rPr>
       <t>피격</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Devil/Effect/BossHit_09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오크거너 일반 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Flash_10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오크거너 일반 투사체</t>
@@ -1363,7 +1363,7 @@
   </si>
   <si>
     <t>Tower/Effect/Explosion_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오크거너 스킬 분출</t>
@@ -1376,21 +1376,21 @@
   </si>
   <si>
     <t>Tower/Effect/Explosion_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오크전사 일반 피격</t>
   </si>
   <si>
     <t>Tower/Effect/Hit_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오크전사 스킬 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Armored</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사이클롭스 일반 피격</t>
@@ -1400,7 +1400,7 @@
   </si>
   <si>
     <t>Tower/Effect/Circle_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고블린 일반 분출</t>
@@ -1413,7 +1413,7 @@
   </si>
   <si>
     <t>Tower/Effect/Hit_15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고블린 스킬 분출</t>
@@ -1432,14 +1432,14 @@
   </si>
   <si>
     <t>Tower/Effect/Tornado_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>트롤주술사 일반 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Flash_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>트롤주술사 일반 투사체</t>
@@ -1449,28 +1449,28 @@
   </si>
   <si>
     <t>Tower/Effect/Hit_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>트롤주술사 스킬 분출</t>
   </si>
   <si>
     <t>Tower/Effect/MagicRay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>트롤주술사 스킬 피격</t>
   </si>
   <si>
     <t>Tower/Effect/Buff_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스파크몬 일반 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Flash_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스파크몬 일반 투사체</t>
@@ -1480,42 +1480,42 @@
   </si>
   <si>
     <t>Tower/Effect/Hit_10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스파크몬 스킬 분출</t>
   </si>
   <si>
     <t>Tower/Effect/LightningBolt01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>살라맨더 일반 피격</t>
   </si>
   <si>
     <t>Tower/Effect/Hit_13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>살라맨더 스킬 피격</t>
   </si>
   <si>
     <t>Tower/Effect/Hit_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>라바골렘 일반 피격</t>
   </si>
   <si>
     <t>Tower/Effect/Hit_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>라바골렘 스킬 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Fire_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>케르베로스 일반 피격</t>
@@ -1525,7 +1525,7 @@
   </si>
   <si>
     <t>Tower/Effect/Flash_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>발록 일반 피격</t>
@@ -1535,7 +1535,7 @@
   </si>
   <si>
     <t>Tower/Effect/MagicBuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>미노타우로스 일반 피격</t>
@@ -1545,14 +1545,14 @@
   </si>
   <si>
     <t>Tower/Effect/Circle_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사티로스 일반 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Flash_8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사티로스 일반 투사체</t>
@@ -1562,7 +1562,7 @@
   </si>
   <si>
     <t>Tower/Effect/Hit_8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사티로스 스킬 분출</t>
@@ -1631,11 +1631,11 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tower/Effect/LightningBolt02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그림리퍼 일반 피격</t>
@@ -1645,21 +1645,21 @@
   </si>
   <si>
     <t>Tower/Effect/Hit_19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>데스나이트 일반 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Sword_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>데스나이트 스킬 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Hit_23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다크소울 일반 피격</t>
@@ -1669,7 +1669,7 @@
   </si>
   <si>
     <t>Tower/Effect/Hit_20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스톤골렘 일반 피격</t>
@@ -1685,7 +1685,7 @@
   </si>
   <si>
     <t>Tower/Effect/Fire_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>박쥐 일반 피격</t>
@@ -1695,7 +1695,7 @@
   </si>
   <si>
     <t>Tower/Effect/Circle_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>늑대 일반 피격</t>
@@ -1705,7 +1705,7 @@
   </si>
   <si>
     <t>Tower/Effect/Going_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>늑대 스킬 피격</t>
@@ -1718,7 +1718,7 @@
   </si>
   <si>
     <t>Tower/Effect/Punch_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광대 일반 분출</t>
@@ -1743,14 +1743,14 @@
   </si>
   <si>
     <t>Tower/Effect/Hit_21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>타락천사 스킬 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Rain_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이프리스 일반 피격</t>
@@ -1760,14 +1760,14 @@
   </si>
   <si>
     <t>Tower/Effect/Boom_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>드래곤 일반 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Fire_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>드래곤 일반 투사체</t>
@@ -1780,14 +1780,14 @@
   </si>
   <si>
     <t>Tower/Effect/Laser_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마녀 일반 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Flash_12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마녀 일반 투사체</t>
@@ -1797,14 +1797,14 @@
   </si>
   <si>
     <t>Tower/Effect/Hit_12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마녀 스킬 분출</t>
   </si>
   <si>
     <t>Tower/Effect/Spawn_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다크엘프 일반 피격</t>
@@ -1814,7 +1814,7 @@
   </si>
   <si>
     <t>Tower/Effect/Spin_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1876,7 +1876,7 @@
   </si>
   <si>
     <t>Enemy/Effect/Hit_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1932,11 +1932,11 @@
       </rPr>
       <t>분출</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Enemy/Effect/Healing_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1992,11 +1992,11 @@
       </rPr>
       <t>피격</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Enemy/Effect/Healing_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>드워프전사 일반 피격</t>
@@ -2006,35 +2006,35 @@
   </si>
   <si>
     <t>Enemy/Effect/Shild_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>드워프전사 스킬 피격</t>
   </si>
   <si>
     <t>Enemy/Effect/Shild_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그리핀 일반 피격</t>
   </si>
   <si>
     <t>Enemy/Effect/Hit_13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그리핀 스킬 분출</t>
   </si>
   <si>
     <t>Enemy/Effect/Healing_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기사 일반 피격</t>
   </si>
   <si>
     <t>Enemy/Effect/Flash_9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2090,7 +2090,7 @@
       </rPr>
       <t>피격</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마법사 일반 피격</t>
@@ -2109,56 +2109,56 @@
   </si>
   <si>
     <t>Buff/Effect/Dot_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도트피해 02 화상</t>
   </si>
   <si>
     <t>Buff/Effect/Dot_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도트피해 03 출혈</t>
   </si>
   <si>
     <t>Buff/Effect/Dot_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기절</t>
   </si>
   <si>
     <t>Buff/Effect/Stun_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>슬로우</t>
   </si>
   <si>
     <t>Buff/Effect/Slow_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>몬스터실드</t>
   </si>
   <si>
     <t>Buff/Effect/SuperShild_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자폭</t>
   </si>
   <si>
     <t>Buff/Effect/Explosion_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시너지 01 거인</t>
   </si>
   <si>
     <t>Synergy/Effect/1synergy_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시너지 01 난쟁이</t>
@@ -2219,7 +2219,7 @@
   </si>
   <si>
     <t>Synergy/Effect/2synergy_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시너지 02 흑마법사</t>
@@ -2387,7 +2387,7 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2438,7 +2438,7 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2470,7 +2470,7 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2521,7 +2521,7 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2553,7 +2553,7 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2585,7 +2585,7 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>거인 시너지 아이콘</t>
@@ -2687,7 +2687,7 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2738,7 +2738,7 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2789,11 +2789,11 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>중간 보스</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2844,39 +2844,39 @@
       </rPr>
       <t>아이콘</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>일반 보스</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Skill/BossPro_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Skill/Projectile_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Skill/Projectile_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Skill/Projectile_12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Skill/Projectile_10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Skill/Projectile_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Skill/Projectile_15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Icon/Skill/SkillIcon_01</t>
@@ -3042,39 +3042,39 @@
   </si>
   <si>
     <t>빈 오브젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성 결과 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성 투사체 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combination/Effect/Healing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Default</t>
+    <t>Combination/Effect/Projectile_12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>합성 결과 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>합성 투사체 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combination/Effect/Healing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combination/Effect/Projectile_12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>볼룸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Volume</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3115,7 +3115,7 @@
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3156,7 +3156,7 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3178,15 +3178,15 @@
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Magic Cast 04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>punch_grit_wet_impact_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sword Swing 7_5</t>
@@ -3211,23 +3211,15 @@
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_bag_ring_gemstone_item_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Click 05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Combat Percussion LOOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nordic Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4218,7 +4210,7 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4771,7 +4763,7 @@
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4812,7 +4804,7 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4834,7 +4826,7 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5208,379 +5200,970 @@
   </si>
   <si>
     <t>Blunt Swing 2_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Blunt Weapon 3_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cartoon_boing_jump_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/cartoon_boing_jump_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>comedy_bite_creature_eating_05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/comedy_bite_creature_eating_05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fire_8_Bit_Fireball_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/Fire_8_Bit_Fireball_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Foley Armour 05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Heavy_Whoosh_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/Heavy_Whoosh_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hell_Sword_Strike_Cast_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/Hell_Sword_Strike_Cast_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Magic Chimes 03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Magic Element Earth 01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Magic Element Fire 01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Magic Element Fire 04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Magic Element Thunder 02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Punch 2_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Stab 1_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sword Swing 1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sword Swing 3_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sword Swing 5_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Whoosh 1_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>whoosh_swish_small_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/whoosh_swish_small_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Arrow Hit Metal 1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attack_Enemy_Impact_5_heavy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/Attack_Enemy_Impact_5_heavy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Evil Attack 02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fire_Ball</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/Fire_Ball</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lightning_Sword_One_Shot_v2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/Lightning_Sword_One_Shot_v2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Magic Buff Attack 02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Magic Element Fire 03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Monster Big Walking 1_04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Monster Big Walking 2_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Punch 3_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/punch_grit_wet_impact_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>punch_slap_whack_hit_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/punch_slap_whack_hit_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>punch_slap_whack_hit_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/punch_slap_whack_hit_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Star_Magic_Impact_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/Star_Magic_Impact_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Subtle_Slash_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/Subtle_Slash_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sword Swing 8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>battle_viking_horn_call_close_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/Other/battle_viking_horn_call_close_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/Other/coin_bag_ring_gemstone_item_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_menu_button_scroll_09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/Other/ui_menu_button_scroll_09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Arcane Trailer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Death BRASS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Epic Combat LOOP 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Epic Combat LOOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Revolution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/PlayMusic/Revolution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Triumphant Victory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/ArrowFly1_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/BluntSwing2_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/BluntWeapon3_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/MagicElementEarth01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/MagicElementFire01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/MagicElementFire04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/MagicElementThunder02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/Punch2_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/Stab1_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/SwordSwing1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/SwordSwing3_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/SwordSwing5_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/Whoosh1_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/FoleyArmour05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Attaking/MagicChimes03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/ArrowHitMetal1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/EvilAttack02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/MagicBuffAttack02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/MagicCast04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/MagicElementFire03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/MonsterBigWalking 1_04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/MonsterBigWalking 2_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/Punch3_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/SwordSwing 7_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/Tower/Damaged/SwordSwing 8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/Other/SpecialClick05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/PlayMusic/ArcaneTrailer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/PlayMusic/CombatPercussionLOOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/PlayMusic/DeathBRASS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/PlayMusic/EpicCombatLOOP1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/PlayMusic/EpicCombatLOOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/PlayMusic/NordicTitle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound/UI/PlayMusic/TriumphantVictory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리롤할때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음향</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합성시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Attaking/MagicNegative03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Attaking/SwordSwing2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Attaking/SwordSwing10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Damaged/MagicElementIce02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Damaged/MagicElementWind02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Damaged/WeaponDrawMetal2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Death/FemaleScream06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Death/Hell_Sword_Strike_Cast_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Devil/Death/MaleScream06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5593,15 +6176,7 @@
     <numFmt numFmtId="178" formatCode="@\ &quot;3성&quot;"/>
     <numFmt numFmtId="179" formatCode="@\ &quot;아이콘&quot;"/>
   </numFmts>
-  <fonts count="19">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5925,134 +6500,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6061,40 +6660,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6432,32 +7016,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="44"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
@@ -10762,7 +11346,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="18" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
@@ -10798,28 +11382,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="32" t="s">
@@ -11777,7 +12361,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
@@ -11793,13 +12377,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1B3E40-FA0C-4B11-BC5C-C6256F1D0C45}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11816,32 +12400,32 @@
   <sheetData>
     <row r="1" spans="2:7" customFormat="1"/>
     <row r="2" spans="2:7" customFormat="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="55" t="s">
         <v>508</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" customFormat="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="2:7" customFormat="1">
       <c r="B4" s="32" t="s">
@@ -11887,17 +12471,17 @@
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="44" t="s">
         <v>511</v>
       </c>
       <c r="D6" s="41">
         <v>920001</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="45">
         <v>1</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G6" s="41"/>
     </row>
@@ -11905,400 +12489,400 @@
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>512</v>
       </c>
       <c r="D7" s="41">
         <v>920002</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="45">
         <v>1</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>631</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>569</v>
+        <v>628</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>522</v>
+      <c r="C8" s="44" t="s">
+        <v>520</v>
       </c>
       <c r="D8" s="41">
         <v>920003</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="45">
         <v>1</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>632</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>570</v>
+        <v>629</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>523</v>
+      <c r="C9" s="44" t="s">
+        <v>521</v>
       </c>
       <c r="D9" s="41">
         <v>920004</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="45">
         <v>1</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>571</v>
+        <v>570</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>524</v>
+      <c r="C10" s="44" t="s">
+        <v>522</v>
       </c>
       <c r="D10" s="41">
         <v>920005</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="45">
         <v>1</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>574</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>573</v>
+        <v>572</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>525</v>
+      <c r="C11" s="44" t="s">
+        <v>523</v>
       </c>
       <c r="D11" s="41">
         <v>920006</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="45">
         <v>1</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>575</v>
+        <v>574</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>526</v>
+      <c r="C12" s="44" t="s">
+        <v>524</v>
       </c>
       <c r="D12" s="41">
         <v>920007</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="45">
         <v>1</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>643</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>577</v>
+        <v>640</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>527</v>
+      <c r="C13" s="44" t="s">
+        <v>525</v>
       </c>
       <c r="D13" s="41">
         <v>920008</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="45">
         <v>1</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>578</v>
+        <v>577</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>528</v>
+      <c r="C14" s="44" t="s">
+        <v>526</v>
       </c>
       <c r="D14" s="41">
         <v>920009</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="45">
         <v>1</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>581</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>529</v>
+      <c r="C15" s="44" t="s">
+        <v>527</v>
       </c>
       <c r="D15" s="41">
         <v>920010</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="45">
         <v>1</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>582</v>
+        <v>641</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>530</v>
+      <c r="C16" s="44" t="s">
+        <v>528</v>
       </c>
       <c r="D16" s="41">
         <v>920011</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="45">
         <v>1</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>583</v>
+        <v>630</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>531</v>
+      <c r="C17" s="44" t="s">
+        <v>529</v>
       </c>
       <c r="D17" s="41">
         <v>920012</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="45">
         <v>1</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>634</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>584</v>
+        <v>631</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="7">
         <v>14</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>532</v>
+      <c r="C18" s="44" t="s">
+        <v>530</v>
       </c>
       <c r="D18" s="41">
         <v>920013</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="45">
         <v>1</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>585</v>
+        <v>632</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="7">
         <v>15</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>533</v>
+      <c r="C19" s="44" t="s">
+        <v>531</v>
       </c>
       <c r="D19" s="41">
         <v>920014</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="45">
         <v>1</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>636</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>586</v>
+        <v>633</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="7">
         <v>16</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>534</v>
+      <c r="C20" s="44" t="s">
+        <v>532</v>
       </c>
       <c r="D20" s="41">
         <v>920015</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="45">
         <v>1</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>637</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>587</v>
+        <v>634</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="7">
         <v>17</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>535</v>
+      <c r="C21" s="44" t="s">
+        <v>533</v>
       </c>
       <c r="D21" s="41">
         <v>920016</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="45">
         <v>1</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>638</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>588</v>
+        <v>635</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="7">
         <v>18</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>536</v>
+      <c r="C22" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="D22" s="41">
         <v>920017</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="45">
         <v>1</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>639</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>589</v>
+        <v>636</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="7">
         <v>19</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>537</v>
+      <c r="C23" s="44" t="s">
+        <v>535</v>
       </c>
       <c r="D23" s="41">
         <v>920018</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="45">
         <v>1</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>590</v>
+        <v>637</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="7">
         <v>20</v>
       </c>
-      <c r="C24" s="52" t="s">
-        <v>538</v>
+      <c r="C24" s="44" t="s">
+        <v>536</v>
       </c>
       <c r="D24" s="41">
         <v>920019</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="45">
         <v>1</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>641</v>
-      </c>
-      <c r="G24" s="56" t="s">
-        <v>591</v>
+        <v>638</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="7">
         <v>21</v>
       </c>
-      <c r="C25" s="52" t="s">
-        <v>539</v>
+      <c r="C25" s="44" t="s">
+        <v>537</v>
       </c>
       <c r="D25" s="41">
         <v>920020</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="45">
         <v>1</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>642</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>592</v>
+        <v>639</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="7">
         <v>22</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>540</v>
+      <c r="C26" s="44" t="s">
+        <v>538</v>
       </c>
       <c r="D26" s="41">
         <v>920021</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="45">
         <v>1</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>594</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -12306,20 +12890,20 @@
       <c r="B27" s="7">
         <v>23</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="44" t="s">
         <v>513</v>
       </c>
       <c r="D27" s="41">
         <v>920022</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="45">
         <v>1</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>645</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>595</v>
+        <v>642</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12327,20 +12911,20 @@
       <c r="B28" s="7">
         <v>24</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>541</v>
+      <c r="C28" s="44" t="s">
+        <v>539</v>
       </c>
       <c r="D28" s="41">
         <v>920023</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="45">
         <v>1</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>597</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>596</v>
+        <v>595</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12348,20 +12932,20 @@
       <c r="B29" s="7">
         <v>25</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>542</v>
+      <c r="C29" s="44" t="s">
+        <v>540</v>
       </c>
       <c r="D29" s="41">
         <v>920024</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="45">
         <v>1</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>646</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>598</v>
+        <v>643</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -12369,20 +12953,20 @@
       <c r="B30" s="7">
         <v>26</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>543</v>
+      <c r="C30" s="44" t="s">
+        <v>541</v>
       </c>
       <c r="D30" s="41">
         <v>920025</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="45">
         <v>1</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>600</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>599</v>
+        <v>598</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -12390,20 +12974,20 @@
       <c r="B31" s="7">
         <v>27</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>544</v>
+      <c r="C31" s="44" t="s">
+        <v>542</v>
       </c>
       <c r="D31" s="41">
         <v>920026</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="45">
         <v>1</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -12411,20 +12995,20 @@
       <c r="B32" s="7">
         <v>28</v>
       </c>
-      <c r="C32" s="52" t="s">
-        <v>545</v>
+      <c r="C32" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="D32" s="41">
         <v>920027</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="45">
         <v>1</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>603</v>
+        <v>644</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -12432,19 +13016,19 @@
       <c r="B33" s="7">
         <v>29</v>
       </c>
-      <c r="C33" s="52" t="s">
-        <v>546</v>
+      <c r="C33" s="44" t="s">
+        <v>544</v>
       </c>
       <c r="D33" s="41">
         <v>920028</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="45">
         <v>1</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>648</v>
-      </c>
-      <c r="G33" s="56" t="s">
+        <v>645</v>
+      </c>
+      <c r="G33" s="48" t="s">
         <v>514</v>
       </c>
     </row>
@@ -12453,20 +13037,20 @@
       <c r="B34" s="7">
         <v>30</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>547</v>
+      <c r="C34" s="44" t="s">
+        <v>545</v>
       </c>
       <c r="D34" s="41">
         <v>920029</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="45">
         <v>1</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="G34" s="56" t="s">
-        <v>604</v>
+        <v>646</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -12474,20 +13058,20 @@
       <c r="B35" s="7">
         <v>31</v>
       </c>
-      <c r="C35" s="52" t="s">
-        <v>548</v>
+      <c r="C35" s="44" t="s">
+        <v>546</v>
       </c>
       <c r="D35" s="41">
         <v>920030</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="45">
         <v>1</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="G35" s="56" t="s">
-        <v>605</v>
+        <v>647</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -12495,20 +13079,20 @@
       <c r="B36" s="7">
         <v>32</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>549</v>
+      <c r="C36" s="44" t="s">
+        <v>547</v>
       </c>
       <c r="D36" s="41">
         <v>920031</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="45">
         <v>1</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>651</v>
-      </c>
-      <c r="G36" s="56" t="s">
-        <v>606</v>
+        <v>648</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12516,20 +13100,20 @@
       <c r="B37" s="7">
         <v>33</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>550</v>
+      <c r="C37" s="44" t="s">
+        <v>548</v>
       </c>
       <c r="D37" s="41">
         <v>920032</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="45">
         <v>1</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>652</v>
-      </c>
-      <c r="G37" s="56" t="s">
-        <v>607</v>
+        <v>649</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -12537,19 +13121,19 @@
       <c r="B38" s="7">
         <v>34</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>551</v>
+      <c r="C38" s="44" t="s">
+        <v>549</v>
       </c>
       <c r="D38" s="41">
         <v>920033</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="45">
         <v>1</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>608</v>
-      </c>
-      <c r="G38" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="G38" s="48" t="s">
         <v>515</v>
       </c>
     </row>
@@ -12558,20 +13142,20 @@
       <c r="B39" s="7">
         <v>35</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>552</v>
+      <c r="C39" s="44" t="s">
+        <v>550</v>
       </c>
       <c r="D39" s="41">
         <v>920034</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="45">
         <v>1</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="G39" s="56" t="s">
-        <v>609</v>
+        <v>608</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12579,20 +13163,20 @@
       <c r="B40" s="7">
         <v>36</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>553</v>
+      <c r="C40" s="44" t="s">
+        <v>551</v>
       </c>
       <c r="D40" s="41">
         <v>920035</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="45">
         <v>1</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>612</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>611</v>
+        <v>610</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -12600,20 +13184,20 @@
       <c r="B41" s="7">
         <v>37</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>554</v>
+      <c r="C41" s="44" t="s">
+        <v>552</v>
       </c>
       <c r="D41" s="41">
         <v>920036</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="45">
         <v>1</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>613</v>
+        <v>612</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -12621,20 +13205,20 @@
       <c r="B42" s="7">
         <v>38</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>555</v>
+      <c r="C42" s="44" t="s">
+        <v>553</v>
       </c>
       <c r="D42" s="41">
         <v>920037</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="45">
         <v>1</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>616</v>
-      </c>
-      <c r="G42" s="56" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -12642,19 +13226,19 @@
       <c r="B43" s="7">
         <v>39</v>
       </c>
-      <c r="C43" s="52" t="s">
-        <v>556</v>
+      <c r="C43" s="44" t="s">
+        <v>554</v>
       </c>
       <c r="D43" s="41">
         <v>920038</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="45">
         <v>1</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>653</v>
-      </c>
-      <c r="G43" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="G43" s="48" t="s">
         <v>516</v>
       </c>
     </row>
@@ -12663,371 +13247,511 @@
       <c r="B44" s="7">
         <v>40</v>
       </c>
-      <c r="C44" s="52" t="s">
-        <v>557</v>
+      <c r="C44" s="44" t="s">
+        <v>555</v>
       </c>
       <c r="D44" s="41">
         <v>920039</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="45">
         <v>1</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="G44" s="56" t="s">
-        <v>617</v>
+        <v>651</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="B45" s="7">
         <v>41</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="43" t="s">
         <v>517</v>
       </c>
       <c r="D45" s="41">
         <v>920040</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E45" s="45">
         <v>1</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="G45" s="56" t="s">
-        <v>618</v>
+        <v>617</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="7">
         <v>42</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>560</v>
+      <c r="C46" s="43" t="s">
+        <v>558</v>
       </c>
       <c r="D46" s="41">
         <v>920041</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="45">
         <v>1</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="G46" s="56" t="s">
-        <v>518</v>
+        <v>618</v>
+      </c>
+      <c r="G46" s="57" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="7">
         <v>43</v>
       </c>
-      <c r="C47" s="51" t="s">
-        <v>561</v>
+      <c r="C47" s="43" t="s">
+        <v>559</v>
       </c>
       <c r="D47" s="41">
         <v>920042</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E47" s="45">
         <v>1</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="G47" s="56" t="s">
-        <v>519</v>
+        <v>652</v>
+      </c>
+      <c r="G47" s="57" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="7">
         <v>44</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>562</v>
+      <c r="C48" s="43" t="s">
+        <v>560</v>
       </c>
       <c r="D48" s="41">
         <v>920043</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="45">
         <v>1</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>622</v>
-      </c>
-      <c r="G48" s="56" t="s">
-        <v>621</v>
+        <v>619</v>
+      </c>
+      <c r="G48" s="57" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="7">
         <v>45</v>
       </c>
-      <c r="C49" s="51" t="s">
-        <v>558</v>
+      <c r="C49" s="43" t="s">
+        <v>556</v>
       </c>
       <c r="D49" s="41">
         <v>920044</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E49" s="45">
         <v>1</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>656</v>
-      </c>
-      <c r="G49" s="56" t="s">
-        <v>623</v>
+        <v>653</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="7">
         <v>46</v>
       </c>
-      <c r="C50" s="51" t="s">
-        <v>559</v>
+      <c r="C50" s="43" t="s">
+        <v>557</v>
       </c>
       <c r="D50" s="41">
         <v>920045</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E50" s="45">
         <v>1</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>657</v>
-      </c>
-      <c r="G50" s="56" t="s">
-        <v>520</v>
+        <v>654</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="7">
         <v>47</v>
       </c>
-      <c r="C51" s="51" t="s">
-        <v>563</v>
+      <c r="C51" s="43" t="s">
+        <v>561</v>
       </c>
       <c r="D51" s="41">
         <v>920046</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E51" s="45">
         <v>1</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="G51" s="56" t="s">
-        <v>624</v>
+        <v>655</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="7">
         <v>48</v>
       </c>
-      <c r="C52" s="51" t="s">
-        <v>564</v>
+      <c r="C52" s="43" t="s">
+        <v>562</v>
       </c>
       <c r="D52" s="41">
         <v>920047</v>
       </c>
-      <c r="E52" s="53">
+      <c r="E52" s="45">
         <v>1</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="G52" s="56" t="s">
-        <v>625</v>
+        <v>656</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="7">
         <v>49</v>
       </c>
-      <c r="C53" s="51" t="s">
-        <v>565</v>
+      <c r="C53" s="43" t="s">
+        <v>563</v>
       </c>
       <c r="D53" s="41">
         <v>920048</v>
       </c>
-      <c r="E53" s="53">
+      <c r="E53" s="45">
         <v>1</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="G53" s="56" t="s">
-        <v>626</v>
+        <v>657</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="7">
         <v>50</v>
       </c>
-      <c r="C54" s="51" t="s">
-        <v>566</v>
+      <c r="C54" s="43" t="s">
+        <v>564</v>
       </c>
       <c r="D54" s="41">
         <v>920049</v>
       </c>
-      <c r="E54" s="53">
+      <c r="E54" s="45">
         <v>1</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>661</v>
-      </c>
-      <c r="G54" s="56" t="s">
-        <v>521</v>
+        <v>658</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="7">
         <v>51</v>
       </c>
-      <c r="C55" s="51" t="s">
-        <v>567</v>
+      <c r="C55" s="43" t="s">
+        <v>565</v>
       </c>
       <c r="D55" s="41">
         <v>920050</v>
       </c>
-      <c r="E55" s="53">
+      <c r="E55" s="45">
         <v>1</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>628</v>
-      </c>
-      <c r="G55" s="56" t="s">
-        <v>627</v>
+        <v>625</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="7">
         <v>52</v>
       </c>
-      <c r="C56" s="51" t="s">
-        <v>568</v>
+      <c r="C56" s="43" t="s">
+        <v>566</v>
       </c>
       <c r="D56" s="41">
         <v>920051</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="45">
         <v>1</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>662</v>
-      </c>
-      <c r="G56" s="56" t="s">
-        <v>629</v>
+        <v>659</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="3">
+      <c r="B57" s="7">
+        <v>53</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>663</v>
+      </c>
+      <c r="D57" s="41">
+        <v>920052</v>
+      </c>
+      <c r="E57" s="45">
+        <v>1</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="G57" s="59"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="7">
+        <v>54</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>675</v>
+      </c>
+      <c r="D58" s="41">
+        <v>920053</v>
+      </c>
+      <c r="E58" s="45">
+        <v>1</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>667</v>
+      </c>
+      <c r="G58" s="59"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="7">
         <v>55</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="3">
+      <c r="C59" s="58" t="s">
+        <v>676</v>
+      </c>
+      <c r="D59" s="41">
+        <v>920054</v>
+      </c>
+      <c r="E59" s="45">
+        <v>1</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>668</v>
+      </c>
+      <c r="G59" s="59"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="7">
         <v>56</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="3">
+      <c r="C60" s="58" t="s">
+        <v>664</v>
+      </c>
+      <c r="D60" s="41">
+        <v>920055</v>
+      </c>
+      <c r="E60" s="45">
+        <v>1</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>669</v>
+      </c>
+      <c r="G60" s="59"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="7">
         <v>57</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="3">
+      <c r="C61" s="58" t="s">
+        <v>677</v>
+      </c>
+      <c r="D61" s="41">
+        <v>920056</v>
+      </c>
+      <c r="E61" s="45">
+        <v>1</v>
+      </c>
+      <c r="F61" s="46" t="s">
+        <v>670</v>
+      </c>
+      <c r="G61" s="59"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="7">
         <v>58</v>
       </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="3">
+      <c r="C62" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="D62" s="41">
+        <v>920057</v>
+      </c>
+      <c r="E62" s="45">
+        <v>1</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>671</v>
+      </c>
+      <c r="G62" s="59"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="7">
         <v>59</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="3">
+      <c r="C63" s="58" t="s">
+        <v>665</v>
+      </c>
+      <c r="D63" s="41">
+        <v>920058</v>
+      </c>
+      <c r="E63" s="45">
+        <v>1</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>672</v>
+      </c>
+      <c r="G63" s="59"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="7">
         <v>60</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="3">
+      <c r="C64" s="58" t="s">
+        <v>679</v>
+      </c>
+      <c r="D64" s="41">
+        <v>920059</v>
+      </c>
+      <c r="E64" s="45">
+        <v>1</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>673</v>
+      </c>
+      <c r="G64" s="59"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="7">
         <v>61</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="3">
-        <v>62</v>
-      </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="3">
-        <v>63</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
+      <c r="C65" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="D65" s="41">
+        <v>920060</v>
+      </c>
+      <c r="E65" s="45">
+        <v>1</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>674</v>
+      </c>
+      <c r="G65" s="59"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="3">
-        <v>64</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="3">
-        <v>65</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="3"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="3"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="3"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="3"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="3"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="3"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="3"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="3"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="3"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:G5" xr:uid="{4990B825-AB5E-4421-AF7C-C539E81D0879}"/>
@@ -13039,12 +13763,12 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="56" max="16383" man="1"/>
+    <brk id="65" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="3" max="1048575" man="1"/>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lg686\Desktop\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17890925-4CE9-44B8-B084-AF4111666EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B1502-497F-4440-8191-1F5EB7228259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7050" yWindow="3330" windowWidth="14400" windowHeight="12210" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="1008" yWindow="24" windowWidth="20196" windowHeight="11292" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -5519,26 +5519,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sound/Tower/Damaged/MonsterBigWalking 1_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound/Tower/Damaged/MonsterBigWalking 2_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sound/Tower/Damaged/Punch3_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sound/Tower/Damaged/SwordSwing 7_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound/Tower/Damaged/SwordSwing 8_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sound/UI/Other/SpecialClick05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6163,6 +6147,22 @@
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Tower/Damaged/MonsterBigWalking1_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Tower/Damaged/MonsterBigWalking2_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Tower/Damaged/SwordSwing7_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/Tower/Damaged/SwordSwing8_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6648,6 +6648,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6671,15 +6680,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7004,44 +7004,44 @@
       <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
-    <col min="7" max="7" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.8984375" customWidth="1"/>
+    <col min="7" max="7" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="50"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
@@ -11371,39 +11371,39 @@
       <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="56" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="32" t="s">
@@ -12380,52 +12380,52 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD92"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="42" customWidth="1"/>
-    <col min="6" max="6" width="43.25" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.69921875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="43.19921875" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.09765625" style="42" customWidth="1"/>
     <col min="8" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" customFormat="1"/>
     <row r="2" spans="2:7" customFormat="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="56" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" customFormat="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="2:7" customFormat="1">
       <c r="B4" s="32" t="s">
@@ -13068,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="G35" s="48" t="s">
         <v>603</v>
@@ -13089,7 +13089,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="G36" s="48" t="s">
         <v>604</v>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G37" s="48" t="s">
         <v>605</v>
@@ -13236,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="G43" s="48" t="s">
         <v>516</v>
@@ -13257,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="G44" s="48" t="s">
         <v>615</v>
@@ -13299,8 +13299,8 @@
       <c r="F46" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="G46" s="57" t="s">
-        <v>660</v>
+      <c r="G46" s="49" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -13317,10 +13317,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>652</v>
-      </c>
-      <c r="G47" s="57" t="s">
-        <v>661</v>
+        <v>648</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -13339,8 +13339,8 @@
       <c r="F48" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="G48" s="57" t="s">
-        <v>662</v>
+      <c r="G48" s="49" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -13357,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G49" s="48" t="s">
         <v>620</v>
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G50" s="48" t="s">
         <v>518</v>
@@ -13397,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G51" s="48" t="s">
         <v>621</v>
@@ -13417,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G52" s="48" t="s">
         <v>622</v>
@@ -13437,7 +13437,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G53" s="48" t="s">
         <v>623</v>
@@ -13457,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>519</v>
@@ -13497,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G56" s="48" t="s">
         <v>626</v>
@@ -13507,8 +13507,8 @@
       <c r="B57" s="7">
         <v>53</v>
       </c>
-      <c r="C57" s="58" t="s">
-        <v>663</v>
+      <c r="C57" s="50" t="s">
+        <v>659</v>
       </c>
       <c r="D57" s="41">
         <v>920052</v>
@@ -13517,16 +13517,16 @@
         <v>1</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="G57" s="59"/>
+        <v>662</v>
+      </c>
+      <c r="G57" s="51"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="7">
         <v>54</v>
       </c>
-      <c r="C58" s="58" t="s">
-        <v>675</v>
+      <c r="C58" s="50" t="s">
+        <v>671</v>
       </c>
       <c r="D58" s="41">
         <v>920053</v>
@@ -13535,16 +13535,16 @@
         <v>1</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>667</v>
-      </c>
-      <c r="G58" s="59"/>
+        <v>663</v>
+      </c>
+      <c r="G58" s="51"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="7">
         <v>55</v>
       </c>
-      <c r="C59" s="58" t="s">
-        <v>676</v>
+      <c r="C59" s="50" t="s">
+        <v>672</v>
       </c>
       <c r="D59" s="41">
         <v>920054</v>
@@ -13553,16 +13553,16 @@
         <v>1</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>668</v>
-      </c>
-      <c r="G59" s="59"/>
+        <v>664</v>
+      </c>
+      <c r="G59" s="51"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="7">
         <v>56</v>
       </c>
-      <c r="C60" s="58" t="s">
-        <v>664</v>
+      <c r="C60" s="50" t="s">
+        <v>660</v>
       </c>
       <c r="D60" s="41">
         <v>920055</v>
@@ -13571,16 +13571,16 @@
         <v>1</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>669</v>
-      </c>
-      <c r="G60" s="59"/>
+        <v>665</v>
+      </c>
+      <c r="G60" s="51"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="7">
         <v>57</v>
       </c>
-      <c r="C61" s="58" t="s">
-        <v>677</v>
+      <c r="C61" s="50" t="s">
+        <v>673</v>
       </c>
       <c r="D61" s="41">
         <v>920056</v>
@@ -13589,16 +13589,16 @@
         <v>1</v>
       </c>
       <c r="F61" s="46" t="s">
-        <v>670</v>
-      </c>
-      <c r="G61" s="59"/>
+        <v>666</v>
+      </c>
+      <c r="G61" s="51"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="7">
         <v>58</v>
       </c>
-      <c r="C62" s="58" t="s">
-        <v>678</v>
+      <c r="C62" s="50" t="s">
+        <v>674</v>
       </c>
       <c r="D62" s="41">
         <v>920057</v>
@@ -13607,16 +13607,16 @@
         <v>1</v>
       </c>
       <c r="F62" s="46" t="s">
-        <v>671</v>
-      </c>
-      <c r="G62" s="59"/>
+        <v>667</v>
+      </c>
+      <c r="G62" s="51"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="7">
         <v>59</v>
       </c>
-      <c r="C63" s="58" t="s">
-        <v>665</v>
+      <c r="C63" s="50" t="s">
+        <v>661</v>
       </c>
       <c r="D63" s="41">
         <v>920058</v>
@@ -13625,16 +13625,16 @@
         <v>1</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>672</v>
-      </c>
-      <c r="G63" s="59"/>
+        <v>668</v>
+      </c>
+      <c r="G63" s="51"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="7">
         <v>60</v>
       </c>
-      <c r="C64" s="58" t="s">
-        <v>679</v>
+      <c r="C64" s="50" t="s">
+        <v>675</v>
       </c>
       <c r="D64" s="41">
         <v>920059</v>
@@ -13643,16 +13643,16 @@
         <v>1</v>
       </c>
       <c r="F64" s="46" t="s">
-        <v>673</v>
-      </c>
-      <c r="G64" s="59"/>
+        <v>669</v>
+      </c>
+      <c r="G64" s="51"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="7">
         <v>61</v>
       </c>
-      <c r="C65" s="58" t="s">
-        <v>680</v>
+      <c r="C65" s="50" t="s">
+        <v>676</v>
       </c>
       <c r="D65" s="41">
         <v>920060</v>
@@ -13661,9 +13661,9 @@
         <v>1</v>
       </c>
       <c r="F65" s="46" t="s">
-        <v>674</v>
-      </c>
-      <c r="G65" s="59"/>
+        <v>670</v>
+      </c>
+      <c r="G65" s="51"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3"/>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lg686\Desktop\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B1502-497F-4440-8191-1F5EB7228259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C9E50A-31F2-4115-8313-C5131D11F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="24" windowWidth="20196" windowHeight="11292" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -6997,22 +6997,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}">
   <dimension ref="B2:G242"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.8984375" customWidth="1"/>
-    <col min="7" max="7" width="36.09765625" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="7" max="7" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -8680,7 +8680,7 @@
         <v>900088</v>
       </c>
       <c r="E94" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" s="16" t="s">
         <v>139</v>
@@ -8788,7 +8788,7 @@
         <v>900094</v>
       </c>
       <c r="E100" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F100" s="16" t="s">
         <v>151</v>
@@ -8806,7 +8806,7 @@
         <v>900095</v>
       </c>
       <c r="E101" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F101" s="16" t="s">
         <v>153</v>
@@ -8824,7 +8824,7 @@
         <v>900096</v>
       </c>
       <c r="E102" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F102" s="16" t="s">
         <v>155</v>
@@ -8842,7 +8842,7 @@
         <v>900097</v>
       </c>
       <c r="E103" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>157</v>
@@ -8860,7 +8860,7 @@
         <v>900098</v>
       </c>
       <c r="E104" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>159</v>
@@ -8878,7 +8878,7 @@
         <v>900099</v>
       </c>
       <c r="E105" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>161</v>
@@ -8914,7 +8914,7 @@
         <v>900101</v>
       </c>
       <c r="E107" s="18">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>441</v>
@@ -8986,7 +8986,7 @@
         <v>900105</v>
       </c>
       <c r="E111" s="18">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F111" s="17" t="s">
         <v>172</v>
@@ -9058,7 +9058,7 @@
         <v>900109</v>
       </c>
       <c r="E115" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F115" s="17" t="s">
         <v>180</v>
@@ -11371,14 +11371,14 @@
       <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.09765625" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -12379,22 +12379,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1B3E40-FA0C-4B11-BC5C-C6256F1D0C45}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69921875" style="42" customWidth="1"/>
-    <col min="6" max="6" width="43.19921875" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.09765625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="42" customWidth="1"/>
+    <col min="6" max="6" width="43.25" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" style="42" customWidth="1"/>
     <col min="8" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C9E50A-31F2-4115-8313-C5131D11F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A8A08-AD67-4785-8C5F-78081A3AA66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -4390,38 +4390,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> 9</t>
     </r>
     <r>
@@ -6163,6 +6131,39 @@
   </si>
   <si>
     <t>Sound/Tower/Damaged/SwordSwing8_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6997,11 +6998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}">
   <dimension ref="B2:G242"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G110" sqref="G110"/>
+      <selection pane="bottomRight" activeCell="C241" sqref="C241:F241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12379,11 +12380,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1B3E40-FA0C-4B11-BC5C-C6256F1D0C45}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12478,10 +12479,10 @@
         <v>920001</v>
       </c>
       <c r="E6" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G6" s="41"/>
     </row>
@@ -12496,13 +12497,13 @@
         <v>920002</v>
       </c>
       <c r="E7" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -12516,13 +12517,13 @@
         <v>920003</v>
       </c>
       <c r="E8" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -12536,13 +12537,13 @@
         <v>920004</v>
       </c>
       <c r="E9" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -12556,13 +12557,13 @@
         <v>920005</v>
       </c>
       <c r="E10" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -12576,13 +12577,13 @@
         <v>920006</v>
       </c>
       <c r="E11" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -12596,13 +12597,13 @@
         <v>920007</v>
       </c>
       <c r="E12" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -12616,13 +12617,13 @@
         <v>920008</v>
       </c>
       <c r="E13" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -12636,13 +12637,13 @@
         <v>920009</v>
       </c>
       <c r="E14" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -12656,13 +12657,13 @@
         <v>920010</v>
       </c>
       <c r="E15" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -12676,13 +12677,13 @@
         <v>920011</v>
       </c>
       <c r="E16" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12696,13 +12697,13 @@
         <v>920012</v>
       </c>
       <c r="E17" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12716,13 +12717,13 @@
         <v>920013</v>
       </c>
       <c r="E18" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12736,13 +12737,13 @@
         <v>920014</v>
       </c>
       <c r="E19" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12756,13 +12757,13 @@
         <v>920015</v>
       </c>
       <c r="E20" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12776,13 +12777,13 @@
         <v>920016</v>
       </c>
       <c r="E21" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12796,13 +12797,13 @@
         <v>920017</v>
       </c>
       <c r="E22" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12816,13 +12817,13 @@
         <v>920018</v>
       </c>
       <c r="E23" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -12836,13 +12837,13 @@
         <v>920019</v>
       </c>
       <c r="E24" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -12856,13 +12857,13 @@
         <v>920020</v>
       </c>
       <c r="E25" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12876,13 +12877,13 @@
         <v>920021</v>
       </c>
       <c r="E26" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -12897,13 +12898,13 @@
         <v>920022</v>
       </c>
       <c r="E27" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12918,13 +12919,13 @@
         <v>920023</v>
       </c>
       <c r="E28" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12939,13 +12940,13 @@
         <v>920024</v>
       </c>
       <c r="E29" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -12960,13 +12961,13 @@
         <v>920025</v>
       </c>
       <c r="E30" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -12981,13 +12982,13 @@
         <v>920026</v>
       </c>
       <c r="E31" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -13002,13 +13003,13 @@
         <v>920027</v>
       </c>
       <c r="E32" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -13023,10 +13024,10 @@
         <v>920028</v>
       </c>
       <c r="E33" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G33" s="48" t="s">
         <v>514</v>
@@ -13038,19 +13039,19 @@
         <v>30</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>545</v>
+        <v>680</v>
       </c>
       <c r="D34" s="41">
         <v>920029</v>
       </c>
       <c r="E34" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -13059,19 +13060,19 @@
         <v>31</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D35" s="41">
         <v>920030</v>
       </c>
       <c r="E35" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -13080,19 +13081,19 @@
         <v>32</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D36" s="41">
         <v>920031</v>
       </c>
       <c r="E36" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -13101,19 +13102,19 @@
         <v>33</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D37" s="41">
         <v>920032</v>
       </c>
       <c r="E37" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -13122,16 +13123,16 @@
         <v>34</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D38" s="41">
         <v>920033</v>
       </c>
       <c r="E38" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G38" s="48" t="s">
         <v>515</v>
@@ -13143,19 +13144,19 @@
         <v>35</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D39" s="41">
         <v>920034</v>
       </c>
       <c r="E39" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -13164,19 +13165,19 @@
         <v>36</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D40" s="41">
         <v>920035</v>
       </c>
       <c r="E40" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -13185,19 +13186,19 @@
         <v>37</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D41" s="41">
         <v>920036</v>
       </c>
       <c r="E41" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -13206,19 +13207,19 @@
         <v>38</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D42" s="41">
         <v>920037</v>
       </c>
       <c r="E42" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -13227,16 +13228,16 @@
         <v>39</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D43" s="41">
         <v>920038</v>
       </c>
       <c r="E43" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G43" s="48" t="s">
         <v>516</v>
@@ -13248,19 +13249,19 @@
         <v>40</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D44" s="41">
         <v>920039</v>
       </c>
       <c r="E44" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -13277,10 +13278,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -13288,7 +13289,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D46" s="41">
         <v>920041</v>
@@ -13297,10 +13298,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G46" s="49" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -13308,7 +13309,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D47" s="41">
         <v>920042</v>
@@ -13317,10 +13318,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G47" s="49" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -13328,7 +13329,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D48" s="41">
         <v>920043</v>
@@ -13337,10 +13338,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G48" s="49" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -13348,7 +13349,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D49" s="41">
         <v>920044</v>
@@ -13357,10 +13358,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -13368,7 +13369,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D50" s="41">
         <v>920045</v>
@@ -13377,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G50" s="48" t="s">
         <v>518</v>
@@ -13388,7 +13389,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D51" s="41">
         <v>920046</v>
@@ -13397,10 +13398,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -13408,7 +13409,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D52" s="41">
         <v>920047</v>
@@ -13417,10 +13418,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -13428,7 +13429,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D53" s="41">
         <v>920048</v>
@@ -13437,10 +13438,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -13448,7 +13449,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D54" s="41">
         <v>920049</v>
@@ -13457,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G54" s="48" t="s">
         <v>519</v>
@@ -13468,7 +13469,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D55" s="41">
         <v>920050</v>
@@ -13477,10 +13478,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -13488,7 +13489,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D56" s="41">
         <v>920051</v>
@@ -13497,10 +13498,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -13508,7 +13509,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D57" s="41">
         <v>920052</v>
@@ -13517,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G57" s="51"/>
     </row>
@@ -13526,7 +13527,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D58" s="41">
         <v>920053</v>
@@ -13535,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G58" s="51"/>
     </row>
@@ -13544,7 +13545,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D59" s="41">
         <v>920054</v>
@@ -13553,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G59" s="51"/>
     </row>
@@ -13562,7 +13563,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D60" s="41">
         <v>920055</v>
@@ -13571,7 +13572,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G60" s="51"/>
     </row>
@@ -13580,7 +13581,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D61" s="41">
         <v>920056</v>
@@ -13589,7 +13590,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="46" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G61" s="51"/>
     </row>
@@ -13598,7 +13599,7 @@
         <v>58</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D62" s="41">
         <v>920057</v>
@@ -13607,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="46" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G62" s="51"/>
     </row>
@@ -13616,7 +13617,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D63" s="41">
         <v>920058</v>
@@ -13625,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G63" s="51"/>
     </row>
@@ -13634,7 +13635,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D64" s="41">
         <v>920059</v>
@@ -13643,7 +13644,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="46" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G64" s="51"/>
     </row>
@@ -13652,7 +13653,7 @@
         <v>61</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D65" s="41">
         <v>920060</v>
@@ -13661,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="46" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G65" s="51"/>
     </row>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A8A08-AD67-4785-8C5F-78081A3AA66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8FFE56-6BA9-49C8-861F-1692BBA1E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="14400" yWindow="3390" windowWidth="14400" windowHeight="12210" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -12384,7 +12384,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12479,7 +12479,7 @@
         <v>920001</v>
       </c>
       <c r="E6" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>626</v>
@@ -12497,7 +12497,7 @@
         <v>920002</v>
       </c>
       <c r="E7" s="45">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>627</v>
@@ -12517,7 +12517,7 @@
         <v>920003</v>
       </c>
       <c r="E8" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>628</v>
@@ -12537,7 +12537,7 @@
         <v>920004</v>
       </c>
       <c r="E9" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>569</v>
@@ -12557,7 +12557,7 @@
         <v>920005</v>
       </c>
       <c r="E10" s="45">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>571</v>
@@ -12577,7 +12577,7 @@
         <v>920006</v>
       </c>
       <c r="E11" s="45">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>573</v>
@@ -12597,7 +12597,7 @@
         <v>920007</v>
       </c>
       <c r="E12" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>639</v>
@@ -12617,7 +12617,7 @@
         <v>920008</v>
       </c>
       <c r="E13" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="41" t="s">
         <v>576</v>
@@ -12637,7 +12637,7 @@
         <v>920009</v>
       </c>
       <c r="E14" s="45">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>578</v>
@@ -12657,7 +12657,7 @@
         <v>920010</v>
       </c>
       <c r="E15" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>640</v>
@@ -12677,7 +12677,7 @@
         <v>920011</v>
       </c>
       <c r="E16" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="41" t="s">
         <v>629</v>
@@ -12697,7 +12697,7 @@
         <v>920012</v>
       </c>
       <c r="E17" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F17" s="41" t="s">
         <v>630</v>
@@ -12717,7 +12717,7 @@
         <v>920013</v>
       </c>
       <c r="E18" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>631</v>
@@ -12737,7 +12737,7 @@
         <v>920014</v>
       </c>
       <c r="E19" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>632</v>
@@ -12757,7 +12757,7 @@
         <v>920015</v>
       </c>
       <c r="E20" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>633</v>
@@ -12777,7 +12777,7 @@
         <v>920016</v>
       </c>
       <c r="E21" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>634</v>
@@ -12797,7 +12797,7 @@
         <v>920017</v>
       </c>
       <c r="E22" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>635</v>
@@ -12817,7 +12817,7 @@
         <v>920018</v>
       </c>
       <c r="E23" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F23" s="41" t="s">
         <v>636</v>
@@ -12837,7 +12837,7 @@
         <v>920019</v>
       </c>
       <c r="E24" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>637</v>
@@ -12857,7 +12857,7 @@
         <v>920020</v>
       </c>
       <c r="E25" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F25" s="41" t="s">
         <v>638</v>
@@ -12877,7 +12877,7 @@
         <v>920021</v>
       </c>
       <c r="E26" s="45">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>591</v>
@@ -12898,7 +12898,7 @@
         <v>920022</v>
       </c>
       <c r="E27" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F27" s="41" t="s">
         <v>641</v>
@@ -12919,7 +12919,7 @@
         <v>920023</v>
       </c>
       <c r="E28" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>594</v>
@@ -12940,7 +12940,7 @@
         <v>920024</v>
       </c>
       <c r="E29" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F29" s="41" t="s">
         <v>642</v>
@@ -12961,7 +12961,7 @@
         <v>920025</v>
       </c>
       <c r="E30" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>597</v>
@@ -12982,7 +12982,7 @@
         <v>920026</v>
       </c>
       <c r="E31" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F31" s="41" t="s">
         <v>599</v>
@@ -13003,7 +13003,7 @@
         <v>920027</v>
       </c>
       <c r="E32" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>643</v>
@@ -13024,7 +13024,7 @@
         <v>920028</v>
       </c>
       <c r="E33" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F33" s="41" t="s">
         <v>644</v>
@@ -13045,7 +13045,7 @@
         <v>920029</v>
       </c>
       <c r="E34" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F34" s="41" t="s">
         <v>645</v>
@@ -13066,7 +13066,7 @@
         <v>920030</v>
       </c>
       <c r="E35" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F35" s="41" t="s">
         <v>676</v>
@@ -13087,7 +13087,7 @@
         <v>920031</v>
       </c>
       <c r="E36" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F36" s="41" t="s">
         <v>677</v>
@@ -13108,7 +13108,7 @@
         <v>920032</v>
       </c>
       <c r="E37" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F37" s="41" t="s">
         <v>646</v>
@@ -13129,7 +13129,7 @@
         <v>920033</v>
       </c>
       <c r="E38" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F38" s="41" t="s">
         <v>605</v>
@@ -13150,7 +13150,7 @@
         <v>920034</v>
       </c>
       <c r="E39" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>607</v>
@@ -13171,7 +13171,7 @@
         <v>920035</v>
       </c>
       <c r="E40" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F40" s="41" t="s">
         <v>609</v>
@@ -13192,7 +13192,7 @@
         <v>920036</v>
       </c>
       <c r="E41" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>611</v>
@@ -13213,7 +13213,7 @@
         <v>920037</v>
       </c>
       <c r="E42" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F42" s="41" t="s">
         <v>613</v>
@@ -13234,7 +13234,7 @@
         <v>920038</v>
       </c>
       <c r="E43" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F43" s="41" t="s">
         <v>678</v>
@@ -13255,7 +13255,7 @@
         <v>920039</v>
       </c>
       <c r="E44" s="45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F44" s="41" t="s">
         <v>679</v>

--- a/Documents/Table_List/11_Prefab_Table.xlsx
+++ b/Documents/Table_List/11_Prefab_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8FFE56-6BA9-49C8-861F-1692BBA1E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287D98E7-2812-4EF2-AFD9-D87EAED2E1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="3390" windowWidth="14400" windowHeight="12210" activeTab="2" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C8D2A5-20D5-410E-973E-08FD6130294F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab_Table" sheetId="2" r:id="rId1"/>
@@ -6998,11 +6998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D96570-5B12-4781-BB60-26DB57D476F1}">
   <dimension ref="B2:G242"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C241" sqref="C241:F241"/>
+      <selection pane="bottomRight" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8681,7 +8681,7 @@
         <v>900088</v>
       </c>
       <c r="E94" s="10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F94" s="16" t="s">
         <v>139</v>
@@ -12380,11 +12380,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1B3E40-FA0C-4B11-BC5C-C6256F1D0C45}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12537,7 +12537,7 @@
         <v>920004</v>
       </c>
       <c r="E9" s="45">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>569</v>
@@ -12557,7 +12557,7 @@
         <v>920005</v>
       </c>
       <c r="E10" s="45">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>571</v>
@@ -12637,7 +12637,7 @@
         <v>920009</v>
       </c>
       <c r="E14" s="45">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>578</v>
